--- a/reservaTis/storage/archivos/calendario.xlsx
+++ b/reservaTis/storage/archivos/calendario.xlsx
@@ -30,25 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="32">
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="35">
   <si>
     <t>Venta de matriculas 1-2017</t>
   </si>
@@ -119,6 +101,9 @@
     <t>actualizado</t>
   </si>
   <si>
+    <t>sem</t>
+  </si>
+  <si>
     <t>fecha</t>
   </si>
   <si>
@@ -126,6 +111,30 @@
   </si>
   <si>
     <t>actividad</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t>Sabado</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>Miercoles</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>MIercoles</t>
   </si>
 </sst>
 </file>
@@ -149,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -183,11 +192,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -196,6 +231,15 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E347"/>
+  <dimension ref="A1:F347"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C319"/>
+    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="B313" sqref="B313:B319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -487,4850 +531,5261 @@
     <col min="5" max="5" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>42783</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5">
-        <v>41255</v>
       </c>
       <c r="E2" s="5">
         <v>41255</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="5">
+        <v>41255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>42784</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="5">
+      <c r="D3" s="2"/>
+      <c r="E3" s="5">
         <v>41256</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>43036</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>42785</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="5">
+      <c r="D4" s="2"/>
+      <c r="E4" s="5">
         <v>41257</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>43037</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>42786</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
         <v>41258</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>43038</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>42787</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5">
+        <v>31</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
         <v>41259</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>43039</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>42788</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5">
+        <v>32</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
         <v>41260</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>43040</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>42789</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
         <v>41261</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <v>43041</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>42790</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5">
+        <v>27</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
         <v>41262</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>43042</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>42791</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="5">
+        <v>28</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="5">
         <v>41263</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>43043</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>42792</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="5">
+      <c r="D11" s="2"/>
+      <c r="E11" s="5">
         <v>41264</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F11" s="5">
         <v>43044</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>42793</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="5">
+        <v>30</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5">
         <v>41265</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <v>43045</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>42794</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="5">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="5">
         <v>41266</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>43046</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>42795</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5">
+        <v>32</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5">
         <v>41267</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5">
         <v>43047</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>42796</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="5">
+        <v>33</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="5">
         <v>41268</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="5">
         <v>43048</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>42797</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="5">
+        <v>27</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5">
         <v>41269</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="5">
         <v>43049</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>42798</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="5">
+        <v>28</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="5">
         <v>41270</v>
       </c>
-      <c r="E17" s="5">
+      <c r="F17" s="5">
         <v>43050</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>42799</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="5">
+      <c r="D18" s="2"/>
+      <c r="E18" s="5">
         <v>41271</v>
       </c>
-      <c r="E18" s="5">
+      <c r="F18" s="5">
         <v>43051</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>42800</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="5">
+        <v>30</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="5">
         <v>41272</v>
       </c>
-      <c r="E19" s="5">
+      <c r="F19" s="5">
         <v>43052</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>42801</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="5">
+        <v>31</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="5">
         <v>41273</v>
       </c>
-      <c r="E20" s="5">
+      <c r="F20" s="5">
         <v>43053</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>42802</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="5">
+        <v>32</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="5">
         <v>41274</v>
       </c>
-      <c r="E21" s="5">
+      <c r="F21" s="5">
         <v>43054</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>42803</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="5">
+        <v>33</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="5">
         <v>41275</v>
       </c>
-      <c r="E22" s="5">
+      <c r="F22" s="5">
         <v>43055</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>42804</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="5">
+        <v>27</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="5">
         <v>41276</v>
       </c>
-      <c r="E23" s="5">
+      <c r="F23" s="5">
         <v>43056</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>42805</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="5">
+        <v>28</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="5">
         <v>41277</v>
       </c>
-      <c r="E24" s="5">
+      <c r="F24" s="5">
         <v>43057</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>42806</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="5">
+      <c r="D25" s="2"/>
+      <c r="E25" s="5">
         <v>41278</v>
       </c>
-      <c r="E25" s="5">
+      <c r="F25" s="5">
         <v>43058</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>42807</v>
       </c>
       <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="6">
         <v>3</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="D26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="5">
         <v>41279</v>
       </c>
-      <c r="E26" s="5">
+      <c r="F26" s="5">
         <v>43059</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>42808</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="5">
+        <v>31</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="5">
         <v>41280</v>
       </c>
-      <c r="E27" s="5">
+      <c r="F27" s="5">
         <v>43060</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>42809</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="5">
+        <v>32</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="5">
         <v>41281</v>
       </c>
-      <c r="E28" s="5">
+      <c r="F28" s="5">
         <v>43061</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>42810</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="5">
+        <v>33</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="5">
         <v>41282</v>
       </c>
-      <c r="E29" s="5">
+      <c r="F29" s="5">
         <v>43062</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>42811</v>
       </c>
       <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="5">
+        <v>27</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="5">
         <v>41283</v>
       </c>
-      <c r="E30" s="5">
+      <c r="F30" s="5">
         <v>43063</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>42812</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="5">
+        <v>28</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="5">
         <v>41284</v>
       </c>
-      <c r="E31" s="5">
+      <c r="F31" s="5">
         <v>43064</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>42813</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="5">
+      <c r="D32" s="2"/>
+      <c r="E32" s="5">
         <v>41285</v>
       </c>
-      <c r="E32" s="5">
+      <c r="F32" s="5">
         <v>43065</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>42814</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="5">
+        <v>30</v>
+      </c>
+      <c r="C33" s="6">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="5">
         <v>41286</v>
       </c>
-      <c r="E33" s="5">
+      <c r="F33" s="5">
         <v>43066</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>42815</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="5">
+        <v>31</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="5">
         <v>41287</v>
       </c>
-      <c r="E34" s="5">
+      <c r="F34" s="5">
         <v>43067</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>42816</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="5">
+        <v>34</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="5">
         <v>41288</v>
       </c>
-      <c r="E35" s="5">
+      <c r="F35" s="5">
         <v>43068</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>42817</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="5">
+        <v>33</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="5">
         <v>41289</v>
       </c>
-      <c r="E36" s="5">
+      <c r="F36" s="5">
         <v>43069</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>42818</v>
       </c>
       <c r="B37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="5">
-        <v>43070</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="2"/>
       <c r="E37" s="5">
         <v>43070</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" s="5">
+        <v>43070</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>42819</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="5">
-        <v>43071</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="2"/>
       <c r="E38" s="5">
         <v>43071</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="5">
+        <v>43071</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>42820</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="5">
-        <v>43072</v>
-      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="5">
         <v>43072</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" s="5">
+        <v>43072</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>42821</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="5">
-        <v>43073</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C40" s="6">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2"/>
       <c r="E40" s="5">
         <v>43073</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" s="5">
+        <v>43073</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>42822</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="5">
-        <v>43074</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="2"/>
       <c r="E41" s="5">
         <v>43074</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" s="5">
+        <v>43074</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>42823</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="5">
-        <v>43075</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="2"/>
       <c r="E42" s="5">
         <v>43075</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" s="5">
+        <v>43075</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42824</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="5">
-        <v>43076</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="2"/>
       <c r="E43" s="5">
         <v>43076</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" s="5">
+        <v>43076</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>42825</v>
       </c>
       <c r="B44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="5">
-        <v>43077</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="2"/>
       <c r="E44" s="5">
         <v>43077</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" s="5">
+        <v>43077</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42826</v>
       </c>
       <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="5">
-        <v>43078</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="2"/>
       <c r="E45" s="5">
         <v>43078</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" s="5">
+        <v>43078</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>42827</v>
       </c>
       <c r="B46" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="5">
-        <v>43079</v>
-      </c>
+      <c r="D46" s="2"/>
       <c r="E46" s="5">
         <v>43079</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" s="5">
+        <v>43079</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>42828</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="5">
-        <v>43080</v>
+        <v>30</v>
+      </c>
+      <c r="C47" s="6">
+        <v>6</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E47" s="5">
         <v>43080</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" s="5">
+        <v>43080</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>42829</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="5">
-        <v>43081</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="2"/>
       <c r="E48" s="5">
         <v>43081</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" s="5">
+        <v>43081</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>42830</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="5">
-        <v>43082</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="2"/>
       <c r="E49" s="5">
         <v>43082</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" s="5">
+        <v>43082</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>42831</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="5">
-        <v>43083</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="2"/>
       <c r="E50" s="5">
         <v>43083</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" s="5">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>42832</v>
       </c>
       <c r="B51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="5">
-        <v>43084</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="2"/>
       <c r="E51" s="5">
         <v>43084</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" s="5">
+        <v>43084</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>42833</v>
       </c>
       <c r="B52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="5">
-        <v>43085</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="2"/>
       <c r="E52" s="5">
         <v>43085</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" s="5">
+        <v>43085</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>42834</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="5">
-        <v>43086</v>
-      </c>
+      <c r="D53" s="2"/>
       <c r="E53" s="5">
         <v>43086</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" s="5">
+        <v>43086</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>42835</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="5">
-        <v>43087</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C54" s="6">
+        <v>7</v>
+      </c>
+      <c r="D54" s="2"/>
       <c r="E54" s="5">
         <v>43087</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" s="5">
+        <v>43087</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>42836</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="5">
-        <v>43088</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="2"/>
       <c r="E55" s="5">
         <v>43088</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" s="5">
+        <v>43088</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>42837</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="5">
-        <v>43089</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="2"/>
       <c r="E56" s="5">
         <v>43089</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" s="5">
+        <v>43089</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>42838</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="5">
-        <v>43090</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="2"/>
       <c r="E57" s="5">
         <v>43090</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" s="5">
+        <v>43090</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>42839</v>
       </c>
       <c r="B58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="5">
-        <v>43091</v>
+        <v>27</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="5">
         <v>43091</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" s="5">
+        <v>43091</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>42840</v>
       </c>
       <c r="B59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="5">
-        <v>43092</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="2"/>
       <c r="E59" s="5">
         <v>43092</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" s="5">
+        <v>43092</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>42841</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="D60" s="5">
-        <v>43093</v>
-      </c>
+      <c r="D60" s="2"/>
       <c r="E60" s="5">
         <v>43093</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" s="5">
+        <v>43093</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>42842</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="5">
-        <v>43094</v>
+        <v>30</v>
+      </c>
+      <c r="C61" s="6">
+        <v>8</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E61" s="5">
         <v>43094</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" s="5">
+        <v>43094</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>42843</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="5">
-        <v>43095</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="2"/>
       <c r="E62" s="5">
         <v>43095</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" s="5">
+        <v>43095</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>42844</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="5">
-        <v>43096</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="2"/>
       <c r="E63" s="5">
         <v>43096</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" s="5">
+        <v>43096</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>42845</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="5">
-        <v>43097</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="2"/>
       <c r="E64" s="5">
         <v>43097</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" s="5">
+        <v>43097</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>42846</v>
       </c>
       <c r="B65" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="5">
-        <v>43098</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="2"/>
       <c r="E65" s="5">
         <v>43098</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" s="5">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>42847</v>
       </c>
       <c r="B66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="5">
-        <v>43099</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="2"/>
       <c r="E66" s="5">
         <v>43099</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" s="5">
+        <v>43099</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>42848</v>
       </c>
       <c r="B67" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="D67" s="5">
-        <v>43100</v>
-      </c>
+      <c r="D67" s="2"/>
       <c r="E67" s="5">
         <v>43100</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" s="5">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>42849</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="5">
-        <v>43101</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C68" s="6">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2"/>
       <c r="E68" s="5">
         <v>43101</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" s="5">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>42850</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="5">
-        <v>43102</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="2"/>
       <c r="E69" s="5">
         <v>43102</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" s="5">
+        <v>43102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>42851</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="5">
-        <v>43103</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="2"/>
       <c r="E70" s="5">
         <v>43103</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" s="5">
+        <v>43103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>42852</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="5">
-        <v>43104</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="2"/>
       <c r="E71" s="5">
         <v>43104</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" s="5">
+        <v>43104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>42853</v>
       </c>
       <c r="B72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="5">
-        <v>43105</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="2"/>
       <c r="E72" s="5">
         <v>43105</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" s="5">
+        <v>43105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>42854</v>
       </c>
       <c r="B73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="5">
-        <v>43106</v>
+        <v>28</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E73" s="5">
         <v>43106</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" s="5">
+        <v>43106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>42855</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C74" s="2"/>
-      <c r="D74" s="5">
-        <v>43107</v>
-      </c>
+      <c r="D74" s="2"/>
       <c r="E74" s="5">
         <v>43107</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" s="5">
+        <v>43107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>42856</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="5">
-        <v>43108</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C75" s="6">
+        <v>10</v>
+      </c>
+      <c r="D75" s="2"/>
       <c r="E75" s="5">
         <v>43108</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" s="5">
+        <v>43108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>42857</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="5">
-        <v>43109</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="2"/>
       <c r="E76" s="5">
         <v>43109</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" s="5">
+        <v>43109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>42858</v>
       </c>
       <c r="B77" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="5">
-        <v>43110</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="2"/>
       <c r="E77" s="5">
         <v>43110</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" s="5">
+        <v>43110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>42859</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="5">
-        <v>43111</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="2"/>
       <c r="E78" s="5">
         <v>43111</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" s="5">
+        <v>43111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>42860</v>
       </c>
       <c r="B79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="5">
-        <v>43112</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="2"/>
       <c r="E79" s="5">
         <v>43112</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" s="5">
+        <v>43112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>42861</v>
       </c>
       <c r="B80" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="5">
-        <v>43113</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="2"/>
       <c r="E80" s="5">
         <v>43113</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" s="5">
+        <v>43113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>42862</v>
       </c>
       <c r="B81" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C81" s="2"/>
-      <c r="D81" s="5">
-        <v>43114</v>
-      </c>
+      <c r="D81" s="2"/>
       <c r="E81" s="5">
         <v>43114</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" s="5">
+        <v>43114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>42863</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="5">
-        <v>43115</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C82" s="6">
+        <v>11</v>
+      </c>
+      <c r="D82" s="2"/>
       <c r="E82" s="5">
         <v>43115</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" s="5">
+        <v>43115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>42864</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="5">
-        <v>43116</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="2"/>
       <c r="E83" s="5">
         <v>43116</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" s="5">
+        <v>43116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>42865</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="5">
-        <v>43117</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="2"/>
       <c r="E84" s="5">
         <v>43117</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" s="5">
+        <v>43117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>42866</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="5">
-        <v>43118</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="2"/>
       <c r="E85" s="5">
         <v>43118</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" s="5">
+        <v>43118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>42867</v>
       </c>
       <c r="B86" t="s">
-        <v>0</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="5">
-        <v>43119</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="2"/>
       <c r="E86" s="5">
         <v>43119</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" s="5">
+        <v>43119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>42868</v>
       </c>
       <c r="B87" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="5">
-        <v>43120</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="2"/>
       <c r="E87" s="5">
         <v>43120</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" s="5">
+        <v>43120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>42869</v>
       </c>
       <c r="B88" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C88" s="2"/>
-      <c r="D88" s="5">
-        <v>43121</v>
-      </c>
+      <c r="D88" s="2"/>
       <c r="E88" s="5">
         <v>43121</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" s="5">
+        <v>43121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>42870</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="5">
-        <v>43122</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C89" s="6">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2"/>
       <c r="E89" s="5">
         <v>43122</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" s="5">
+        <v>43122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>42871</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="5">
-        <v>43123</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="2"/>
       <c r="E90" s="5">
         <v>43123</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" s="5">
+        <v>43123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>42872</v>
       </c>
       <c r="B91" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="5">
-        <v>43124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="2"/>
       <c r="E91" s="5">
         <v>43124</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" s="5">
+        <v>43124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>42873</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="5">
-        <v>43125</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="2"/>
       <c r="E92" s="5">
         <v>43125</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92" s="5">
+        <v>43125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>42874</v>
       </c>
       <c r="B93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="5">
-        <v>43126</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="2"/>
       <c r="E93" s="5">
         <v>43126</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" s="5">
+        <v>43126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>42875</v>
       </c>
       <c r="B94" t="s">
-        <v>1</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="5">
-        <v>43127</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="2"/>
       <c r="E94" s="5">
         <v>43127</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94" s="5">
+        <v>43127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>42876</v>
       </c>
       <c r="B95" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C95" s="2"/>
-      <c r="D95" s="5">
-        <v>43128</v>
-      </c>
+      <c r="D95" s="2"/>
       <c r="E95" s="5">
         <v>43128</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95" s="5">
+        <v>43128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>42877</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="5">
-        <v>43129</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C96" s="6">
+        <v>13</v>
+      </c>
+      <c r="D96" s="2"/>
       <c r="E96" s="5">
         <v>43129</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96" s="5">
+        <v>43129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>42878</v>
       </c>
       <c r="B97" t="s">
-        <v>4</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="5">
-        <v>43130</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="2"/>
       <c r="E97" s="5">
         <v>43130</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" s="5">
+        <v>43130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>42879</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="5">
-        <v>43131</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="2"/>
       <c r="E98" s="5">
         <v>43131</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98" s="5">
+        <v>43131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>42880</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="5">
-        <v>43132</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="2"/>
       <c r="E99" s="5">
         <v>43132</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99" s="5">
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>42881</v>
       </c>
       <c r="B100" t="s">
-        <v>0</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="5">
-        <v>43133</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="2"/>
       <c r="E100" s="5">
         <v>43133</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100" s="5">
+        <v>43133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>42882</v>
       </c>
       <c r="B101" t="s">
-        <v>1</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="5">
-        <v>43134</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="D101" s="2"/>
       <c r="E101" s="5">
         <v>43134</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101" s="5">
+        <v>43134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>42883</v>
       </c>
       <c r="B102" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C102" s="2"/>
-      <c r="D102" s="5">
-        <v>43135</v>
-      </c>
+      <c r="D102" s="2"/>
       <c r="E102" s="5">
         <v>43135</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102" s="5">
+        <v>43135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>42884</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="5">
-        <v>43136</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C103" s="6">
+        <v>14</v>
+      </c>
+      <c r="D103" s="2"/>
       <c r="E103" s="5">
         <v>43136</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103" s="5">
+        <v>43136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>42885</v>
       </c>
       <c r="B104" t="s">
-        <v>4</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="5">
-        <v>43137</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="2"/>
       <c r="E104" s="5">
         <v>43137</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104" s="5">
+        <v>43137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>42886</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="5">
-        <v>43138</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="2"/>
       <c r="E105" s="5">
         <v>43138</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105" s="5">
+        <v>43138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>42887</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="5">
-        <v>43139</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="2"/>
       <c r="E106" s="5">
         <v>43139</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106" s="5">
+        <v>43139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>42888</v>
       </c>
       <c r="B107" t="s">
-        <v>0</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" s="5">
-        <v>43140</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="2"/>
       <c r="E107" s="5">
         <v>43140</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107" s="5">
+        <v>43140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>42889</v>
       </c>
       <c r="B108" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="5">
-        <v>43141</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="2"/>
       <c r="E108" s="5">
         <v>43141</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108" s="5">
+        <v>43141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>42890</v>
       </c>
       <c r="B109" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C109" s="2"/>
-      <c r="D109" s="5">
-        <v>43142</v>
-      </c>
+      <c r="D109" s="2"/>
       <c r="E109" s="5">
         <v>43142</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109" s="5">
+        <v>43142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>42891</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="5">
-        <v>43143</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C110" s="6">
+        <v>15</v>
+      </c>
+      <c r="D110" s="2"/>
       <c r="E110" s="5">
         <v>43143</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110" s="5">
+        <v>43143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>42892</v>
       </c>
       <c r="B111" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="5">
-        <v>43144</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C111" s="7"/>
+      <c r="D111" s="2"/>
       <c r="E111" s="5">
         <v>43144</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111" s="5">
+        <v>43144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>42893</v>
       </c>
       <c r="B112" t="s">
-        <v>4</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="5">
-        <v>43145</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="2"/>
       <c r="E112" s="5">
         <v>43145</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" s="5">
+        <v>43145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>42894</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D113" s="5">
-        <v>43146</v>
+        <v>33</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E113" s="5">
         <v>43146</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113" s="5">
+        <v>43146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>42895</v>
       </c>
       <c r="B114" t="s">
-        <v>0</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="5">
-        <v>43147</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C114" s="7"/>
+      <c r="D114" s="2"/>
       <c r="E114" s="5">
         <v>43147</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114" s="5">
+        <v>43147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>42896</v>
       </c>
       <c r="B115" t="s">
-        <v>1</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="5">
-        <v>43148</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C115" s="8"/>
+      <c r="D115" s="2"/>
       <c r="E115" s="5">
         <v>43148</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115" s="5">
+        <v>43148</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>42897</v>
       </c>
       <c r="B116" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C116" s="2"/>
-      <c r="D116" s="5">
-        <v>43149</v>
-      </c>
+      <c r="D116" s="2"/>
       <c r="E116" s="5">
         <v>43149</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116" s="5">
+        <v>43149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>42898</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="5">
-        <v>43150</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C117" s="6">
+        <v>16</v>
+      </c>
+      <c r="D117" s="2"/>
       <c r="E117" s="5">
         <v>43150</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117" s="5">
+        <v>43150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>42899</v>
       </c>
       <c r="B118" t="s">
-        <v>4</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="5">
-        <v>43151</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C118" s="7"/>
+      <c r="D118" s="2"/>
       <c r="E118" s="5">
         <v>43151</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118" s="5">
+        <v>43151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>42900</v>
       </c>
       <c r="B119" t="s">
-        <v>4</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="5">
-        <v>43152</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C119" s="7"/>
+      <c r="D119" s="2"/>
       <c r="E119" s="5">
         <v>43152</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119" s="5">
+        <v>43152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>42901</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" s="5">
-        <v>43153</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C120" s="7"/>
+      <c r="D120" s="2"/>
       <c r="E120" s="5">
         <v>43153</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120" s="5">
+        <v>43153</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>42902</v>
       </c>
       <c r="B121" t="s">
-        <v>0</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="5">
-        <v>43154</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C121" s="7"/>
+      <c r="D121" s="2"/>
       <c r="E121" s="5">
         <v>43154</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121" s="5">
+        <v>43154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>42903</v>
       </c>
       <c r="B122" t="s">
-        <v>1</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="5">
-        <v>43155</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C122" s="8"/>
+      <c r="D122" s="2"/>
       <c r="E122" s="5">
         <v>43155</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F122" s="5">
+        <v>43155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>42904</v>
       </c>
       <c r="B123" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C123" s="2"/>
-      <c r="D123" s="5">
-        <v>43156</v>
-      </c>
+      <c r="D123" s="2"/>
       <c r="E123" s="5">
         <v>43156</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F123" s="5">
+        <v>43156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>42905</v>
       </c>
       <c r="B124" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="5">
-        <v>43157</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C124" s="6">
+        <v>17</v>
+      </c>
+      <c r="D124" s="2"/>
       <c r="E124" s="5">
         <v>43157</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124" s="5">
+        <v>43157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>42906</v>
       </c>
       <c r="B125" t="s">
-        <v>4</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D125" s="5">
-        <v>43158</v>
+        <v>31</v>
+      </c>
+      <c r="C125" s="7"/>
+      <c r="D125" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E125" s="5">
         <v>43158</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125" s="5">
+        <v>43158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>42907</v>
       </c>
       <c r="B126" t="s">
-        <v>4</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D126" s="5">
-        <v>43159</v>
+        <v>32</v>
+      </c>
+      <c r="C126" s="7"/>
+      <c r="D126" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E126" s="5">
         <v>43159</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126" s="5">
+        <v>43159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>42908</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" s="5">
-        <v>43160</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C127" s="7"/>
+      <c r="D127" s="2"/>
       <c r="E127" s="5">
         <v>43160</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F127" s="5">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>42909</v>
       </c>
       <c r="B128" t="s">
-        <v>0</v>
-      </c>
-      <c r="C128" s="2"/>
-      <c r="D128" s="5">
-        <v>43161</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C128" s="7"/>
+      <c r="D128" s="2"/>
       <c r="E128" s="5">
         <v>43161</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128" s="5">
+        <v>43161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>42910</v>
       </c>
       <c r="B129" t="s">
-        <v>1</v>
-      </c>
-      <c r="C129" s="2"/>
-      <c r="D129" s="5">
-        <v>43162</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C129" s="8"/>
+      <c r="D129" s="2"/>
       <c r="E129" s="5">
         <v>43162</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129" s="5">
+        <v>43162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>42911</v>
       </c>
       <c r="B130" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C130" s="2"/>
-      <c r="D130" s="5">
-        <v>43163</v>
-      </c>
+      <c r="D130" s="2"/>
       <c r="E130" s="5">
         <v>43163</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130" s="5">
+        <v>43163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>42912</v>
       </c>
       <c r="B131" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="5">
-        <v>43164</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C131" s="6">
+        <v>18</v>
+      </c>
+      <c r="D131" s="2"/>
       <c r="E131" s="5">
         <v>43164</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131" s="5">
+        <v>43164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>42913</v>
       </c>
       <c r="B132" t="s">
-        <v>4</v>
-      </c>
-      <c r="C132" s="2"/>
-      <c r="D132" s="5">
-        <v>43165</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C132" s="7"/>
+      <c r="D132" s="2"/>
       <c r="E132" s="5">
         <v>43165</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132" s="5">
+        <v>43165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>42914</v>
       </c>
       <c r="B133" t="s">
-        <v>4</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D133" s="5">
-        <v>43166</v>
+        <v>32</v>
+      </c>
+      <c r="C133" s="7"/>
+      <c r="D133" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E133" s="5">
         <v>43166</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133" s="5">
+        <v>43166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>42915</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C134" s="2"/>
-      <c r="D134" s="5">
-        <v>43167</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C134" s="7"/>
+      <c r="D134" s="2"/>
       <c r="E134" s="5">
         <v>43167</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134" s="5">
+        <v>43167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>42916</v>
       </c>
       <c r="B135" t="s">
-        <v>0</v>
-      </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="5">
-        <v>43168</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C135" s="7"/>
+      <c r="D135" s="2"/>
       <c r="E135" s="5">
         <v>43168</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F135" s="5">
+        <v>43168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>42917</v>
       </c>
       <c r="B136" t="s">
-        <v>1</v>
-      </c>
-      <c r="C136" s="2"/>
-      <c r="D136" s="5">
-        <v>43169</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C136" s="8"/>
+      <c r="D136" s="2"/>
       <c r="E136" s="5">
         <v>43169</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F136" s="5">
+        <v>43169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>42918</v>
       </c>
       <c r="B137" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C137" s="2"/>
-      <c r="D137" s="5">
-        <v>43170</v>
-      </c>
+      <c r="D137" s="2"/>
       <c r="E137" s="5">
         <v>43170</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F137" s="5">
+        <v>43170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>42919</v>
       </c>
       <c r="B138" t="s">
-        <v>3</v>
-      </c>
-      <c r="C138" s="2"/>
-      <c r="D138" s="5">
-        <v>43171</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C138" s="6">
+        <v>19</v>
+      </c>
+      <c r="D138" s="2"/>
       <c r="E138" s="5">
         <v>43171</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F138" s="5">
+        <v>43171</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>42920</v>
       </c>
       <c r="B139" t="s">
-        <v>4</v>
-      </c>
-      <c r="C139" s="2"/>
-      <c r="D139" s="5">
-        <v>43172</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C139" s="7"/>
+      <c r="D139" s="2"/>
       <c r="E139" s="5">
         <v>43172</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F139" s="5">
+        <v>43172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>42921</v>
       </c>
       <c r="B140" t="s">
-        <v>4</v>
-      </c>
-      <c r="C140" s="2"/>
-      <c r="D140" s="5">
-        <v>43173</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C140" s="7"/>
+      <c r="D140" s="2"/>
       <c r="E140" s="5">
         <v>43173</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F140" s="5">
+        <v>43173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>42922</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="5">
-        <v>43174</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C141" s="7"/>
+      <c r="D141" s="2"/>
       <c r="E141" s="5">
         <v>43174</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F141" s="5">
+        <v>43174</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>42923</v>
       </c>
       <c r="B142" t="s">
-        <v>0</v>
-      </c>
-      <c r="C142" s="2"/>
-      <c r="D142" s="5">
-        <v>43175</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C142" s="7"/>
+      <c r="D142" s="2"/>
       <c r="E142" s="5">
         <v>43175</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F142" s="5">
+        <v>43175</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>42924</v>
       </c>
       <c r="B143" t="s">
-        <v>1</v>
-      </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="5">
-        <v>43176</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C143" s="8"/>
+      <c r="D143" s="2"/>
       <c r="E143" s="5">
         <v>43176</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F143" s="5">
+        <v>43176</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>42925</v>
       </c>
       <c r="B144" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C144" s="2"/>
-      <c r="D144" s="5">
-        <v>43177</v>
-      </c>
+      <c r="D144" s="2"/>
       <c r="E144" s="5">
         <v>43177</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F144" s="5">
+        <v>43177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>42926</v>
       </c>
       <c r="B145" t="s">
-        <v>3</v>
-      </c>
-      <c r="C145" s="2"/>
-      <c r="D145" s="5">
-        <v>43178</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C145" s="6">
+        <v>20</v>
+      </c>
+      <c r="D145" s="2"/>
       <c r="E145" s="5">
         <v>43178</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F145" s="5">
+        <v>43178</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>42927</v>
       </c>
       <c r="B146" t="s">
-        <v>4</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D146" s="5">
-        <v>43179</v>
+        <v>31</v>
+      </c>
+      <c r="C146" s="7"/>
+      <c r="D146" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E146" s="5">
         <v>43179</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F146" s="5">
+        <v>43179</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>42928</v>
       </c>
       <c r="B147" t="s">
-        <v>4</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D147" s="5">
-        <v>43180</v>
+        <v>32</v>
+      </c>
+      <c r="C147" s="7"/>
+      <c r="D147" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E147" s="5">
         <v>43180</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F147" s="5">
+        <v>43180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>42929</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D148" s="5">
-        <v>43181</v>
+        <v>33</v>
+      </c>
+      <c r="C148" s="7"/>
+      <c r="D148" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E148" s="5">
         <v>43181</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F148" s="5">
+        <v>43181</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>42930</v>
       </c>
       <c r="B149" t="s">
-        <v>0</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D149" s="5">
-        <v>43182</v>
+        <v>27</v>
+      </c>
+      <c r="C149" s="7"/>
+      <c r="D149" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E149" s="5">
         <v>43182</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F149" s="5">
+        <v>43182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>42931</v>
       </c>
       <c r="B150" t="s">
-        <v>1</v>
-      </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="5">
-        <v>43183</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C150" s="8"/>
+      <c r="D150" s="2"/>
       <c r="E150" s="5">
         <v>43183</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F150" s="5">
+        <v>43183</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>42932</v>
       </c>
       <c r="B151" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C151" s="2"/>
-      <c r="D151" s="5">
-        <v>43184</v>
-      </c>
+      <c r="D151" s="2"/>
       <c r="E151" s="5">
         <v>43184</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F151" s="5">
+        <v>43184</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>42933</v>
       </c>
       <c r="B152" t="s">
-        <v>3</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D152" s="5">
-        <v>43185</v>
+        <v>30</v>
+      </c>
+      <c r="C152" s="6">
+        <v>21</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E152" s="5">
         <v>43185</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F152" s="5">
+        <v>43185</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>42934</v>
       </c>
       <c r="B153" t="s">
-        <v>4</v>
-      </c>
-      <c r="C153" s="2"/>
-      <c r="D153" s="5">
-        <v>43186</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C153" s="7"/>
+      <c r="D153" s="2"/>
       <c r="E153" s="5">
         <v>43186</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F153" s="5">
+        <v>43186</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>42935</v>
       </c>
       <c r="B154" t="s">
-        <v>4</v>
-      </c>
-      <c r="C154" s="2"/>
-      <c r="D154" s="5">
-        <v>43187</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C154" s="7"/>
+      <c r="D154" s="2"/>
       <c r="E154" s="5">
         <v>43187</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F154" s="5">
+        <v>43187</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>42936</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
-      </c>
-      <c r="C155" s="2"/>
-      <c r="D155" s="5">
-        <v>43188</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C155" s="7"/>
+      <c r="D155" s="2"/>
       <c r="E155" s="5">
         <v>43188</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F155" s="5">
+        <v>43188</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>42937</v>
       </c>
       <c r="B156" t="s">
-        <v>0</v>
-      </c>
-      <c r="C156" s="2"/>
-      <c r="D156" s="5">
-        <v>43189</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C156" s="7"/>
+      <c r="D156" s="2"/>
       <c r="E156" s="5">
         <v>43189</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F156" s="5">
+        <v>43189</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>42938</v>
       </c>
       <c r="B157" t="s">
-        <v>1</v>
-      </c>
-      <c r="C157" s="2"/>
-      <c r="D157" s="5">
-        <v>43190</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C157" s="8"/>
+      <c r="D157" s="2"/>
       <c r="E157" s="5">
         <v>43190</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F157" s="5">
+        <v>43190</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>42939</v>
       </c>
       <c r="B158" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C158" s="2"/>
-      <c r="D158" s="5">
-        <v>43191</v>
-      </c>
+      <c r="D158" s="2"/>
       <c r="E158" s="5">
         <v>43191</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F158" s="5">
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>42940</v>
       </c>
       <c r="B159" t="s">
-        <v>3</v>
-      </c>
-      <c r="C159" s="2"/>
-      <c r="D159" s="5">
-        <v>43192</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C159" s="6">
+        <v>22</v>
+      </c>
+      <c r="D159" s="2"/>
       <c r="E159" s="5">
         <v>43192</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F159" s="5">
+        <v>43192</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>42941</v>
       </c>
       <c r="B160" t="s">
-        <v>4</v>
-      </c>
-      <c r="C160" s="2"/>
-      <c r="D160" s="5">
-        <v>43193</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C160" s="7"/>
+      <c r="D160" s="2"/>
       <c r="E160" s="5">
         <v>43193</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F160" s="5">
+        <v>43193</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>42942</v>
       </c>
       <c r="B161" t="s">
-        <v>4</v>
-      </c>
-      <c r="C161" s="2"/>
-      <c r="D161" s="5">
-        <v>43194</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C161" s="7"/>
+      <c r="D161" s="2"/>
       <c r="E161" s="5">
         <v>43194</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161" s="5">
+        <v>43194</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>42943</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C162" s="2"/>
-      <c r="D162" s="5">
-        <v>43195</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C162" s="7"/>
+      <c r="D162" s="2"/>
       <c r="E162" s="5">
         <v>43195</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162" s="5">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>42944</v>
       </c>
       <c r="B163" t="s">
-        <v>0</v>
-      </c>
-      <c r="C163" s="2"/>
-      <c r="D163" s="5">
-        <v>43196</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C163" s="7"/>
+      <c r="D163" s="2"/>
       <c r="E163" s="5">
         <v>43196</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163" s="5">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>42945</v>
       </c>
       <c r="B164" t="s">
-        <v>1</v>
-      </c>
-      <c r="C164" s="2"/>
-      <c r="D164" s="5">
-        <v>43197</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C164" s="8"/>
+      <c r="D164" s="2"/>
       <c r="E164" s="5">
         <v>43197</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164" s="5">
+        <v>43197</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>42946</v>
       </c>
       <c r="B165" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C165" s="2"/>
-      <c r="D165" s="5">
-        <v>43198</v>
-      </c>
+      <c r="D165" s="2"/>
       <c r="E165" s="5">
         <v>43198</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165" s="5">
+        <v>43198</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>42947</v>
       </c>
       <c r="B166" t="s">
-        <v>3</v>
-      </c>
-      <c r="C166" s="2"/>
-      <c r="D166" s="5">
-        <v>43199</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C166" s="6">
+        <v>23</v>
+      </c>
+      <c r="D166" s="2"/>
       <c r="E166" s="5">
         <v>43199</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166" s="5">
+        <v>43199</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>42948</v>
       </c>
       <c r="B167" t="s">
-        <v>4</v>
-      </c>
-      <c r="C167" s="2"/>
-      <c r="D167" s="5">
-        <v>43200</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C167" s="7"/>
+      <c r="D167" s="2"/>
       <c r="E167" s="5">
         <v>43200</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167" s="5">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>42949</v>
       </c>
       <c r="B168" t="s">
-        <v>4</v>
-      </c>
-      <c r="C168" s="2"/>
-      <c r="D168" s="5">
-        <v>43201</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C168" s="7"/>
+      <c r="D168" s="2"/>
       <c r="E168" s="5">
         <v>43201</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168" s="5">
+        <v>43201</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>42950</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C169" s="2"/>
-      <c r="D169" s="5">
-        <v>43202</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C169" s="7"/>
+      <c r="D169" s="2"/>
       <c r="E169" s="5">
         <v>43202</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169" s="5">
+        <v>43202</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>42951</v>
       </c>
       <c r="B170" t="s">
-        <v>0</v>
-      </c>
-      <c r="C170" s="2"/>
-      <c r="D170" s="5">
-        <v>43203</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C170" s="7"/>
+      <c r="D170" s="2"/>
       <c r="E170" s="5">
         <v>43203</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170" s="5">
+        <v>43203</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>42952</v>
       </c>
       <c r="B171" t="s">
-        <v>1</v>
-      </c>
-      <c r="C171" s="2"/>
-      <c r="D171" s="5">
-        <v>43204</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C171" s="8"/>
+      <c r="D171" s="2"/>
       <c r="E171" s="5">
         <v>43204</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171" s="5">
+        <v>43204</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>42953</v>
       </c>
       <c r="B172" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C172" s="2"/>
-      <c r="D172" s="5">
-        <v>43205</v>
-      </c>
+      <c r="D172" s="2"/>
       <c r="E172" s="5">
         <v>43205</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172" s="5">
+        <v>43205</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>42954</v>
       </c>
       <c r="B173" t="s">
-        <v>3</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D173" s="5">
-        <v>43206</v>
+        <v>30</v>
+      </c>
+      <c r="C173" s="6">
+        <v>24</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E173" s="5">
         <v>43206</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F173" s="5">
+        <v>43206</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>42955</v>
       </c>
       <c r="B174" t="s">
-        <v>4</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D174" s="5">
-        <v>43207</v>
+        <v>31</v>
+      </c>
+      <c r="C174" s="7"/>
+      <c r="D174" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E174" s="5">
         <v>43207</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F174" s="5">
+        <v>43207</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>42956</v>
       </c>
       <c r="B175" t="s">
-        <v>4</v>
-      </c>
-      <c r="C175" s="2"/>
-      <c r="D175" s="5">
-        <v>43208</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C175" s="7"/>
+      <c r="D175" s="2"/>
       <c r="E175" s="5">
         <v>43208</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F175" s="5">
+        <v>43208</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>42957</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C176" s="2"/>
-      <c r="D176" s="5">
-        <v>43209</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C176" s="7"/>
+      <c r="D176" s="2"/>
       <c r="E176" s="5">
         <v>43209</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F176" s="5">
+        <v>43209</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>42958</v>
       </c>
       <c r="B177" t="s">
-        <v>0</v>
-      </c>
-      <c r="C177" s="2"/>
-      <c r="D177" s="5">
-        <v>43210</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C177" s="7"/>
+      <c r="D177" s="2"/>
       <c r="E177" s="5">
         <v>43210</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F177" s="5">
+        <v>43210</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>42959</v>
       </c>
       <c r="B178" t="s">
-        <v>1</v>
-      </c>
-      <c r="C178" s="2"/>
-      <c r="D178" s="5">
-        <v>43211</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C178" s="8"/>
+      <c r="D178" s="2"/>
       <c r="E178" s="5">
         <v>43211</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F178" s="5">
+        <v>43211</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>42960</v>
       </c>
       <c r="B179" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C179" s="2"/>
-      <c r="D179" s="5">
-        <v>43212</v>
-      </c>
+      <c r="D179" s="2"/>
       <c r="E179" s="5">
         <v>43212</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F179" s="5">
+        <v>43212</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>42961</v>
       </c>
       <c r="B180" t="s">
-        <v>3</v>
-      </c>
-      <c r="C180" s="2"/>
-      <c r="D180" s="5">
-        <v>43213</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C180" s="6">
+        <v>25</v>
+      </c>
+      <c r="D180" s="2"/>
       <c r="E180" s="5">
         <v>43213</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F180" s="5">
+        <v>43213</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>42962</v>
       </c>
       <c r="B181" t="s">
-        <v>4</v>
-      </c>
-      <c r="C181" s="2"/>
-      <c r="D181" s="5">
-        <v>43214</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C181" s="7"/>
+      <c r="D181" s="2"/>
       <c r="E181" s="5">
         <v>43214</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F181" s="5">
+        <v>43214</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>42963</v>
       </c>
       <c r="B182" t="s">
-        <v>4</v>
-      </c>
-      <c r="C182" s="2"/>
-      <c r="D182" s="5">
-        <v>43215</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C182" s="7"/>
+      <c r="D182" s="2"/>
       <c r="E182" s="5">
         <v>43215</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F182" s="5">
+        <v>43215</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>42964</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C183" s="2"/>
-      <c r="D183" s="5">
-        <v>43216</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C183" s="7"/>
+      <c r="D183" s="2"/>
       <c r="E183" s="5">
         <v>43216</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F183" s="5">
+        <v>43216</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>42965</v>
       </c>
       <c r="B184" t="s">
-        <v>0</v>
-      </c>
-      <c r="C184" s="2"/>
-      <c r="D184" s="5">
-        <v>43217</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C184" s="7"/>
+      <c r="D184" s="2"/>
       <c r="E184" s="5">
         <v>43217</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F184" s="5">
+        <v>43217</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>42966</v>
       </c>
       <c r="B185" t="s">
-        <v>1</v>
-      </c>
-      <c r="C185" s="2"/>
-      <c r="D185" s="5">
-        <v>43218</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C185" s="8"/>
+      <c r="D185" s="2"/>
       <c r="E185" s="5">
         <v>43218</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F185" s="5">
+        <v>43218</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>42967</v>
       </c>
       <c r="B186" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C186" s="2"/>
-      <c r="D186" s="5">
-        <v>43219</v>
-      </c>
+      <c r="D186" s="2"/>
       <c r="E186" s="5">
         <v>43219</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F186" s="5">
+        <v>43219</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>42968</v>
       </c>
       <c r="B187" t="s">
-        <v>3</v>
-      </c>
-      <c r="C187" s="2"/>
-      <c r="D187" s="5">
-        <v>43220</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C187" s="6">
+        <v>26</v>
+      </c>
+      <c r="D187" s="2"/>
       <c r="E187" s="5">
         <v>43220</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F187" s="5">
+        <v>43220</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>42969</v>
       </c>
       <c r="B188" t="s">
-        <v>4</v>
-      </c>
-      <c r="C188" s="2"/>
-      <c r="D188" s="5">
-        <v>43221</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C188" s="7"/>
+      <c r="D188" s="2"/>
       <c r="E188" s="5">
         <v>43221</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F188" s="5">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>42970</v>
       </c>
       <c r="B189" t="s">
-        <v>4</v>
-      </c>
-      <c r="C189" s="2"/>
-      <c r="D189" s="5">
-        <v>43222</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C189" s="7"/>
+      <c r="D189" s="2"/>
       <c r="E189" s="5">
         <v>43222</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F189" s="5">
+        <v>43222</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>42971</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C190" s="2"/>
-      <c r="D190" s="5">
-        <v>43223</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C190" s="7"/>
+      <c r="D190" s="2"/>
       <c r="E190" s="5">
         <v>43223</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F190" s="5">
+        <v>43223</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>42972</v>
       </c>
       <c r="B191" t="s">
-        <v>0</v>
-      </c>
-      <c r="C191" s="2"/>
-      <c r="D191" s="5">
-        <v>43224</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C191" s="7"/>
+      <c r="D191" s="2"/>
       <c r="E191" s="5">
         <v>43224</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F191" s="5">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>42973</v>
       </c>
       <c r="B192" t="s">
-        <v>1</v>
-      </c>
-      <c r="C192" s="2"/>
-      <c r="D192" s="5">
-        <v>43225</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C192" s="8"/>
+      <c r="D192" s="2"/>
       <c r="E192" s="5">
         <v>43225</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F192" s="5">
+        <v>43225</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>42974</v>
       </c>
       <c r="B193" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C193" s="2"/>
-      <c r="D193" s="5">
-        <v>43226</v>
-      </c>
+      <c r="D193" s="2"/>
       <c r="E193" s="5">
         <v>43226</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F193" s="5">
+        <v>43226</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>42975</v>
       </c>
       <c r="B194" t="s">
-        <v>3</v>
-      </c>
-      <c r="C194" s="2"/>
-      <c r="D194" s="5">
-        <v>43227</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C194" s="6">
+        <v>27</v>
+      </c>
+      <c r="D194" s="2"/>
       <c r="E194" s="5">
         <v>43227</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F194" s="5">
+        <v>43227</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>42976</v>
       </c>
       <c r="B195" t="s">
-        <v>4</v>
-      </c>
-      <c r="C195" s="2"/>
-      <c r="D195" s="5">
-        <v>43228</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C195" s="7"/>
+      <c r="D195" s="2"/>
       <c r="E195" s="5">
         <v>43228</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F195" s="5">
+        <v>43228</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>42977</v>
       </c>
       <c r="B196" t="s">
-        <v>4</v>
-      </c>
-      <c r="C196" s="2"/>
-      <c r="D196" s="5">
-        <v>43229</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C196" s="7"/>
+      <c r="D196" s="2"/>
       <c r="E196" s="5">
         <v>43229</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F196" s="5">
+        <v>43229</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>42978</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C197" s="2"/>
-      <c r="D197" s="5">
-        <v>43230</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C197" s="7"/>
+      <c r="D197" s="2"/>
       <c r="E197" s="5">
         <v>43230</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F197" s="5">
+        <v>43230</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>42979</v>
       </c>
       <c r="B198" t="s">
-        <v>0</v>
-      </c>
-      <c r="C198" s="2"/>
-      <c r="D198" s="5">
-        <v>43231</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C198" s="7"/>
+      <c r="D198" s="2"/>
       <c r="E198" s="5">
         <v>43231</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F198" s="5">
+        <v>43231</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>42980</v>
       </c>
       <c r="B199" t="s">
-        <v>1</v>
-      </c>
-      <c r="C199" s="2"/>
-      <c r="D199" s="5">
-        <v>43232</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C199" s="8"/>
+      <c r="D199" s="2"/>
       <c r="E199" s="5">
         <v>43232</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F199" s="5">
+        <v>43232</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>42981</v>
       </c>
       <c r="B200" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C200" s="2"/>
-      <c r="D200" s="5">
-        <v>43233</v>
-      </c>
+      <c r="D200" s="2"/>
       <c r="E200" s="5">
         <v>43233</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F200" s="5">
+        <v>43233</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>42982</v>
       </c>
       <c r="B201" t="s">
-        <v>3</v>
-      </c>
-      <c r="C201" s="2"/>
-      <c r="D201" s="5">
-        <v>43234</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C201" s="6">
+        <v>28</v>
+      </c>
+      <c r="D201" s="2"/>
       <c r="E201" s="5">
         <v>43234</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F201" s="5">
+        <v>43234</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>42983</v>
       </c>
       <c r="B202" t="s">
-        <v>4</v>
-      </c>
-      <c r="C202" s="2"/>
-      <c r="D202" s="5">
-        <v>43235</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C202" s="7"/>
+      <c r="D202" s="2"/>
       <c r="E202" s="5">
         <v>43235</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F202" s="5">
+        <v>43235</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>42984</v>
       </c>
       <c r="B203" t="s">
-        <v>4</v>
-      </c>
-      <c r="C203" s="2"/>
-      <c r="D203" s="5">
-        <v>43236</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C203" s="7"/>
+      <c r="D203" s="2"/>
       <c r="E203" s="5">
         <v>43236</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F203" s="5">
+        <v>43236</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>42985</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C204" s="2"/>
-      <c r="D204" s="5">
-        <v>43237</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C204" s="7"/>
+      <c r="D204" s="2"/>
       <c r="E204" s="5">
         <v>43237</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F204" s="5">
+        <v>43237</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>42986</v>
       </c>
       <c r="B205" t="s">
-        <v>0</v>
-      </c>
-      <c r="C205" s="2"/>
-      <c r="D205" s="5">
-        <v>43238</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C205" s="7"/>
+      <c r="D205" s="2"/>
       <c r="E205" s="5">
         <v>43238</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F205" s="5">
+        <v>43238</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>42987</v>
       </c>
       <c r="B206" t="s">
-        <v>1</v>
-      </c>
-      <c r="C206" s="2"/>
-      <c r="D206" s="5">
-        <v>43239</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C206" s="8"/>
+      <c r="D206" s="2"/>
       <c r="E206" s="5">
         <v>43239</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F206" s="5">
+        <v>43239</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>42988</v>
       </c>
       <c r="B207" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C207" s="2"/>
-      <c r="D207" s="5">
-        <v>43240</v>
-      </c>
+      <c r="D207" s="2"/>
       <c r="E207" s="5">
         <v>43240</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F207" s="5">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>42989</v>
       </c>
       <c r="B208" t="s">
-        <v>3</v>
-      </c>
-      <c r="C208" s="2"/>
-      <c r="D208" s="5">
-        <v>43241</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C208" s="6">
+        <v>29</v>
+      </c>
+      <c r="D208" s="2"/>
       <c r="E208" s="5">
         <v>43241</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F208" s="5">
+        <v>43241</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>42990</v>
       </c>
       <c r="B209" t="s">
-        <v>4</v>
-      </c>
-      <c r="C209" s="2"/>
-      <c r="D209" s="5">
-        <v>43242</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C209" s="7"/>
+      <c r="D209" s="2"/>
       <c r="E209" s="5">
         <v>43242</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F209" s="5">
+        <v>43242</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>42991</v>
       </c>
       <c r="B210" t="s">
-        <v>4</v>
-      </c>
-      <c r="C210" s="2"/>
-      <c r="D210" s="5">
-        <v>43243</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C210" s="7"/>
+      <c r="D210" s="2"/>
       <c r="E210" s="5">
         <v>43243</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F210" s="5">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>42992</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C211" s="2"/>
-      <c r="D211" s="5">
-        <v>43244</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C211" s="7"/>
+      <c r="D211" s="2"/>
       <c r="E211" s="5">
         <v>43244</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F211" s="5">
+        <v>43244</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>42993</v>
       </c>
       <c r="B212" t="s">
-        <v>0</v>
-      </c>
-      <c r="C212" s="2"/>
-      <c r="D212" s="5">
-        <v>43245</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C212" s="7"/>
+      <c r="D212" s="2"/>
       <c r="E212" s="5">
         <v>43245</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F212" s="5">
+        <v>43245</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>42994</v>
       </c>
       <c r="B213" t="s">
-        <v>1</v>
-      </c>
-      <c r="C213" s="2"/>
-      <c r="D213" s="5">
-        <v>43246</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C213" s="8"/>
+      <c r="D213" s="2"/>
       <c r="E213" s="5">
         <v>43246</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F213" s="5">
+        <v>43246</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>42995</v>
       </c>
       <c r="B214" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C214" s="2"/>
-      <c r="D214" s="5">
-        <v>43247</v>
-      </c>
+      <c r="D214" s="2"/>
       <c r="E214" s="5">
         <v>43247</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F214" s="5">
+        <v>43247</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>42996</v>
       </c>
       <c r="B215" t="s">
-        <v>3</v>
-      </c>
-      <c r="C215" s="2"/>
-      <c r="D215" s="5">
-        <v>43248</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C215" s="6">
+        <v>30</v>
+      </c>
+      <c r="D215" s="2"/>
       <c r="E215" s="5">
         <v>43248</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F215" s="5">
+        <v>43248</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>42997</v>
       </c>
       <c r="B216" t="s">
-        <v>4</v>
-      </c>
-      <c r="C216" s="2"/>
-      <c r="D216" s="5">
-        <v>43249</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C216" s="7"/>
+      <c r="D216" s="2"/>
       <c r="E216" s="5">
         <v>43249</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F216" s="5">
+        <v>43249</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>42998</v>
       </c>
       <c r="B217" t="s">
-        <v>4</v>
-      </c>
-      <c r="C217" s="2"/>
-      <c r="D217" s="5">
-        <v>43250</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C217" s="7"/>
+      <c r="D217" s="2"/>
       <c r="E217" s="5">
         <v>43250</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F217" s="5">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
         <v>42999</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
-      </c>
-      <c r="C218" s="2"/>
-      <c r="D218" s="5">
-        <v>43251</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C218" s="7"/>
+      <c r="D218" s="2"/>
       <c r="E218" s="5">
         <v>43251</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F218" s="5">
+        <v>43251</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>43000</v>
       </c>
       <c r="B219" t="s">
-        <v>0</v>
-      </c>
-      <c r="C219" s="2"/>
-      <c r="D219" s="5">
-        <v>43252</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C219" s="7"/>
+      <c r="D219" s="2"/>
       <c r="E219" s="5">
         <v>43252</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F219" s="5">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>43001</v>
       </c>
       <c r="B220" t="s">
-        <v>1</v>
-      </c>
-      <c r="C220" s="2"/>
-      <c r="D220" s="5">
-        <v>43253</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C220" s="8"/>
+      <c r="D220" s="2"/>
       <c r="E220" s="5">
         <v>43253</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F220" s="5">
+        <v>43253</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>43002</v>
       </c>
       <c r="B221" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C221" s="2"/>
-      <c r="D221" s="5">
-        <v>43254</v>
-      </c>
+      <c r="D221" s="2"/>
       <c r="E221" s="5">
         <v>43254</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F221" s="5">
+        <v>43254</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
         <v>43003</v>
       </c>
       <c r="B222" t="s">
-        <v>3</v>
-      </c>
-      <c r="C222" s="2"/>
-      <c r="D222" s="5">
-        <v>43255</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C222" s="6">
+        <v>31</v>
+      </c>
+      <c r="D222" s="2"/>
       <c r="E222" s="5">
         <v>43255</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F222" s="5">
+        <v>43255</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>43004</v>
       </c>
       <c r="B223" t="s">
-        <v>4</v>
-      </c>
-      <c r="C223" s="2"/>
-      <c r="D223" s="5">
-        <v>43256</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C223" s="7"/>
+      <c r="D223" s="2"/>
       <c r="E223" s="5">
         <v>43256</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F223" s="5">
+        <v>43256</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
         <v>43005</v>
       </c>
       <c r="B224" t="s">
-        <v>4</v>
-      </c>
-      <c r="C224" s="2"/>
-      <c r="D224" s="5">
-        <v>43257</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C224" s="7"/>
+      <c r="D224" s="2"/>
       <c r="E224" s="5">
         <v>43257</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F224" s="5">
+        <v>43257</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>43006</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
-      </c>
-      <c r="C225" s="2"/>
-      <c r="D225" s="5">
-        <v>43258</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C225" s="7"/>
+      <c r="D225" s="2"/>
       <c r="E225" s="5">
         <v>43258</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F225" s="5">
+        <v>43258</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>43007</v>
       </c>
       <c r="B226" t="s">
-        <v>0</v>
-      </c>
-      <c r="C226" s="2"/>
-      <c r="D226" s="5">
-        <v>43259</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C226" s="7"/>
+      <c r="D226" s="2"/>
       <c r="E226" s="5">
         <v>43259</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F226" s="5">
+        <v>43259</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
         <v>43008</v>
       </c>
       <c r="B227" t="s">
-        <v>1</v>
-      </c>
-      <c r="C227" s="2"/>
-      <c r="D227" s="5">
-        <v>43260</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C227" s="8"/>
+      <c r="D227" s="2"/>
       <c r="E227" s="5">
         <v>43260</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F227" s="5">
+        <v>43260</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
         <v>43009</v>
       </c>
       <c r="B228" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C228" s="2"/>
-      <c r="D228" s="5">
-        <v>43261</v>
-      </c>
+      <c r="D228" s="2"/>
       <c r="E228" s="5">
         <v>43261</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F228" s="5">
+        <v>43261</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
         <v>43010</v>
       </c>
       <c r="B229" t="s">
-        <v>3</v>
-      </c>
-      <c r="C229" s="2"/>
-      <c r="D229" s="5">
-        <v>43262</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C229" s="6">
+        <v>32</v>
+      </c>
+      <c r="D229" s="2"/>
       <c r="E229" s="5">
         <v>43262</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F229" s="5">
+        <v>43262</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
         <v>43011</v>
       </c>
       <c r="B230" t="s">
-        <v>4</v>
-      </c>
-      <c r="C230" s="2"/>
-      <c r="D230" s="5">
-        <v>43263</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C230" s="7"/>
+      <c r="D230" s="2"/>
       <c r="E230" s="5">
         <v>43263</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F230" s="5">
+        <v>43263</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
         <v>43012</v>
       </c>
       <c r="B231" t="s">
-        <v>4</v>
-      </c>
-      <c r="C231" s="2"/>
-      <c r="D231" s="5">
-        <v>43264</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C231" s="7"/>
+      <c r="D231" s="2"/>
       <c r="E231" s="5">
         <v>43264</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F231" s="5">
+        <v>43264</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
         <v>43013</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
-      </c>
-      <c r="C232" s="2"/>
-      <c r="D232" s="5">
-        <v>43265</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C232" s="7"/>
+      <c r="D232" s="2"/>
       <c r="E232" s="5">
         <v>43265</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F232" s="5">
+        <v>43265</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
         <v>43014</v>
       </c>
       <c r="B233" t="s">
-        <v>0</v>
-      </c>
-      <c r="C233" s="2"/>
-      <c r="D233" s="5">
-        <v>43266</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C233" s="7"/>
+      <c r="D233" s="2"/>
       <c r="E233" s="5">
         <v>43266</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F233" s="5">
+        <v>43266</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
         <v>43015</v>
       </c>
       <c r="B234" t="s">
-        <v>1</v>
-      </c>
-      <c r="C234" s="2"/>
-      <c r="D234" s="5">
-        <v>43267</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C234" s="8"/>
+      <c r="D234" s="2"/>
       <c r="E234" s="5">
         <v>43267</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F234" s="5">
+        <v>43267</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
         <v>43016</v>
       </c>
       <c r="B235" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C235" s="2"/>
-      <c r="D235" s="5">
-        <v>43268</v>
-      </c>
+      <c r="D235" s="2"/>
       <c r="E235" s="5">
         <v>43268</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F235" s="5">
+        <v>43268</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
         <v>43017</v>
       </c>
       <c r="B236" t="s">
-        <v>3</v>
-      </c>
-      <c r="C236" s="2"/>
-      <c r="D236" s="5">
-        <v>43269</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C236" s="6">
+        <v>33</v>
+      </c>
+      <c r="D236" s="2"/>
       <c r="E236" s="5">
         <v>43269</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F236" s="5">
+        <v>43269</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
         <v>43018</v>
       </c>
       <c r="B237" t="s">
-        <v>4</v>
-      </c>
-      <c r="C237" s="2"/>
-      <c r="D237" s="5">
-        <v>43270</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C237" s="7"/>
+      <c r="D237" s="2"/>
       <c r="E237" s="5">
         <v>43270</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F237" s="5">
+        <v>43270</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
         <v>43019</v>
       </c>
       <c r="B238" t="s">
-        <v>4</v>
-      </c>
-      <c r="C238" s="2"/>
-      <c r="D238" s="5">
-        <v>43271</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C238" s="7"/>
+      <c r="D238" s="2"/>
       <c r="E238" s="5">
         <v>43271</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F238" s="5">
+        <v>43271</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
         <v>43020</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
-      </c>
-      <c r="C239" s="2"/>
-      <c r="D239" s="5">
-        <v>43272</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C239" s="7"/>
+      <c r="D239" s="2"/>
       <c r="E239" s="5">
         <v>43272</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F239" s="5">
+        <v>43272</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
         <v>43021</v>
       </c>
       <c r="B240" t="s">
-        <v>0</v>
-      </c>
-      <c r="C240" s="2"/>
-      <c r="D240" s="5">
-        <v>43273</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C240" s="7"/>
+      <c r="D240" s="2"/>
       <c r="E240" s="5">
         <v>43273</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F240" s="5">
+        <v>43273</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
         <v>43022</v>
       </c>
       <c r="B241" t="s">
-        <v>1</v>
-      </c>
-      <c r="C241" s="2"/>
-      <c r="D241" s="5">
-        <v>43274</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C241" s="8"/>
+      <c r="D241" s="2"/>
       <c r="E241" s="5">
         <v>43274</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F241" s="5">
+        <v>43274</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
         <v>43023</v>
       </c>
       <c r="B242" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C242" s="2"/>
-      <c r="D242" s="5">
-        <v>43275</v>
-      </c>
+      <c r="D242" s="2"/>
       <c r="E242" s="5">
         <v>43275</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F242" s="5">
+        <v>43275</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
         <v>43024</v>
       </c>
       <c r="B243" t="s">
-        <v>3</v>
-      </c>
-      <c r="C243" s="2"/>
-      <c r="D243" s="5">
-        <v>43276</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C243" s="6">
+        <v>34</v>
+      </c>
+      <c r="D243" s="2"/>
       <c r="E243" s="5">
         <v>43276</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F243" s="5">
+        <v>43276</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
         <v>43025</v>
       </c>
       <c r="B244" t="s">
-        <v>4</v>
-      </c>
-      <c r="C244" s="2"/>
-      <c r="D244" s="5">
-        <v>43277</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C244" s="7"/>
+      <c r="D244" s="2"/>
       <c r="E244" s="5">
         <v>43277</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F244" s="5">
+        <v>43277</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
         <v>43026</v>
       </c>
       <c r="B245" t="s">
-        <v>4</v>
-      </c>
-      <c r="C245" s="2"/>
-      <c r="D245" s="5">
-        <v>43278</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C245" s="7"/>
+      <c r="D245" s="2"/>
       <c r="E245" s="5">
         <v>43278</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F245" s="5">
+        <v>43278</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
         <v>43027</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
-      </c>
-      <c r="C246" s="2"/>
-      <c r="D246" s="5">
-        <v>43279</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C246" s="7"/>
+      <c r="D246" s="2"/>
       <c r="E246" s="5">
         <v>43279</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F246" s="5">
+        <v>43279</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
         <v>43028</v>
       </c>
       <c r="B247" t="s">
-        <v>0</v>
-      </c>
-      <c r="C247" s="2"/>
-      <c r="D247" s="5">
-        <v>43280</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C247" s="7"/>
+      <c r="D247" s="2"/>
       <c r="E247" s="5">
         <v>43280</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F247" s="5">
+        <v>43280</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
         <v>43029</v>
       </c>
       <c r="B248" t="s">
-        <v>1</v>
-      </c>
-      <c r="C248" s="2"/>
-      <c r="D248" s="5">
-        <v>43281</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C248" s="8"/>
+      <c r="D248" s="2"/>
       <c r="E248" s="5">
         <v>43281</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F248" s="5">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
         <v>43030</v>
       </c>
       <c r="B249" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C249" s="2"/>
-      <c r="D249" s="5">
-        <v>43282</v>
-      </c>
+      <c r="D249" s="2"/>
       <c r="E249" s="5">
         <v>43282</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F249" s="5">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
         <v>43031</v>
       </c>
       <c r="B250" t="s">
-        <v>3</v>
-      </c>
-      <c r="C250" s="2"/>
-      <c r="D250" s="5">
-        <v>43283</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C250" s="6">
+        <v>35</v>
+      </c>
+      <c r="D250" s="2"/>
       <c r="E250" s="5">
         <v>43283</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F250" s="5">
+        <v>43283</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
         <v>43032</v>
       </c>
       <c r="B251" t="s">
-        <v>4</v>
-      </c>
-      <c r="C251" s="2"/>
-      <c r="D251" s="5">
-        <v>43284</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C251" s="7"/>
+      <c r="D251" s="2"/>
       <c r="E251" s="5">
         <v>43284</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F251" s="5">
+        <v>43284</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
         <v>43033</v>
       </c>
       <c r="B252" t="s">
-        <v>4</v>
-      </c>
-      <c r="C252" s="2"/>
-      <c r="D252" s="5">
-        <v>43285</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C252" s="7"/>
+      <c r="D252" s="2"/>
       <c r="E252" s="5">
         <v>43285</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F252" s="5">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
         <v>43034</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
-      </c>
-      <c r="C253" s="2"/>
-      <c r="D253" s="5">
-        <v>43286</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C253" s="7"/>
+      <c r="D253" s="2"/>
       <c r="E253" s="5">
         <v>43286</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F253" s="5">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <v>43035</v>
       </c>
       <c r="B254" t="s">
-        <v>0</v>
-      </c>
-      <c r="C254" s="2"/>
-      <c r="D254" s="5">
-        <v>43287</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C254" s="7"/>
+      <c r="D254" s="2"/>
       <c r="E254" s="5">
         <v>43287</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F254" s="5">
+        <v>43287</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
         <v>43036</v>
       </c>
       <c r="B255" t="s">
-        <v>1</v>
-      </c>
-      <c r="C255" s="2"/>
-      <c r="D255" s="5">
-        <v>43288</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C255" s="8"/>
+      <c r="D255" s="2"/>
       <c r="E255" s="5">
         <v>43288</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F255" s="5">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
         <v>43037</v>
       </c>
       <c r="B256" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C256" s="2"/>
-      <c r="D256" s="5">
-        <v>43289</v>
-      </c>
+      <c r="D256" s="2"/>
       <c r="E256" s="5">
         <v>43289</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F256" s="5">
+        <v>43289</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
         <v>43038</v>
       </c>
       <c r="B257" t="s">
-        <v>3</v>
-      </c>
-      <c r="C257" s="2"/>
-      <c r="D257" s="5">
-        <v>43290</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C257" s="6">
+        <v>36</v>
+      </c>
+      <c r="D257" s="2"/>
       <c r="E257" s="5">
         <v>43290</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F257" s="5">
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
         <v>43039</v>
       </c>
       <c r="B258" t="s">
-        <v>4</v>
-      </c>
-      <c r="C258" s="2"/>
-      <c r="D258" s="5">
-        <v>43291</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C258" s="7"/>
+      <c r="D258" s="2"/>
       <c r="E258" s="5">
         <v>43291</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F258" s="5">
+        <v>43291</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
         <v>43040</v>
       </c>
       <c r="B259" t="s">
-        <v>4</v>
-      </c>
-      <c r="C259" s="2"/>
-      <c r="D259" s="5">
-        <v>43292</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C259" s="7"/>
+      <c r="D259" s="2"/>
       <c r="E259" s="5">
         <v>43292</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F259" s="5">
+        <v>43292</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="3">
         <v>43041</v>
       </c>
       <c r="B260" t="s">
-        <v>5</v>
-      </c>
-      <c r="C260" s="2"/>
-      <c r="D260" s="5">
-        <v>43293</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C260" s="7"/>
+      <c r="D260" s="2"/>
       <c r="E260" s="5">
         <v>43293</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F260" s="5">
+        <v>43293</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
         <v>43042</v>
       </c>
       <c r="B261" t="s">
-        <v>0</v>
-      </c>
-      <c r="C261" s="2"/>
-      <c r="D261" s="5">
-        <v>43294</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C261" s="7"/>
+      <c r="D261" s="2"/>
       <c r="E261" s="5">
         <v>43294</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F261" s="5">
+        <v>43294</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
         <v>43043</v>
       </c>
       <c r="B262" t="s">
-        <v>1</v>
-      </c>
-      <c r="C262" s="2"/>
-      <c r="D262" s="5">
-        <v>43295</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C262" s="8"/>
+      <c r="D262" s="2"/>
       <c r="E262" s="5">
         <v>43295</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F262" s="5">
+        <v>43295</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
         <v>43044</v>
       </c>
       <c r="B263" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C263" s="2"/>
-      <c r="D263" s="5">
-        <v>43296</v>
-      </c>
+      <c r="D263" s="2"/>
       <c r="E263" s="5">
         <v>43296</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F263" s="5">
+        <v>43296</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
         <v>43045</v>
       </c>
       <c r="B264" t="s">
-        <v>3</v>
-      </c>
-      <c r="C264" s="2"/>
-      <c r="D264" s="5">
-        <v>43297</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C264" s="6">
+        <v>37</v>
+      </c>
+      <c r="D264" s="2"/>
       <c r="E264" s="5">
         <v>43297</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F264" s="5">
+        <v>43297</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
         <v>43046</v>
       </c>
       <c r="B265" t="s">
-        <v>4</v>
-      </c>
-      <c r="C265" s="2"/>
-      <c r="D265" s="5">
-        <v>43298</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C265" s="7"/>
+      <c r="D265" s="2"/>
       <c r="E265" s="5">
         <v>43298</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F265" s="5">
+        <v>43298</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
         <v>43047</v>
       </c>
       <c r="B266" t="s">
-        <v>4</v>
-      </c>
-      <c r="C266" s="2"/>
-      <c r="D266" s="5">
-        <v>43299</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C266" s="7"/>
+      <c r="D266" s="2"/>
       <c r="E266" s="5">
         <v>43299</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F266" s="5">
+        <v>43299</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
         <v>43048</v>
       </c>
       <c r="B267" t="s">
-        <v>5</v>
-      </c>
-      <c r="C267" s="2"/>
-      <c r="D267" s="5">
-        <v>43300</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C267" s="7"/>
+      <c r="D267" s="2"/>
       <c r="E267" s="5">
         <v>43300</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F267" s="5">
+        <v>43300</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
         <v>43049</v>
       </c>
       <c r="B268" t="s">
-        <v>0</v>
-      </c>
-      <c r="C268" s="2"/>
-      <c r="D268" s="5">
-        <v>43301</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C268" s="7"/>
+      <c r="D268" s="2"/>
       <c r="E268" s="5">
         <v>43301</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F268" s="5">
+        <v>43301</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
         <v>43050</v>
       </c>
       <c r="B269" t="s">
-        <v>1</v>
-      </c>
-      <c r="C269" s="2"/>
-      <c r="D269" s="5">
-        <v>43302</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C269" s="8"/>
+      <c r="D269" s="2"/>
       <c r="E269" s="5">
         <v>43302</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F269" s="5">
+        <v>43302</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="3">
         <v>43051</v>
       </c>
       <c r="B270" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C270" s="2"/>
-      <c r="D270" s="5">
-        <v>43303</v>
-      </c>
+      <c r="D270" s="2"/>
       <c r="E270" s="5">
         <v>43303</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F270" s="5">
+        <v>43303</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="3">
         <v>43052</v>
       </c>
       <c r="B271" t="s">
-        <v>3</v>
-      </c>
-      <c r="C271" s="2"/>
-      <c r="D271" s="5">
-        <v>43304</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C271" s="6">
+        <v>38</v>
+      </c>
+      <c r="D271" s="2"/>
       <c r="E271" s="5">
         <v>43304</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F271" s="5">
+        <v>43304</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="3">
         <v>43053</v>
       </c>
       <c r="B272" t="s">
-        <v>4</v>
-      </c>
-      <c r="C272" s="2"/>
-      <c r="D272" s="5">
-        <v>43305</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C272" s="7"/>
+      <c r="D272" s="2"/>
       <c r="E272" s="5">
         <v>43305</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F272" s="5">
+        <v>43305</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
         <v>43054</v>
       </c>
       <c r="B273" t="s">
-        <v>4</v>
-      </c>
-      <c r="C273" s="2"/>
-      <c r="D273" s="5">
-        <v>43306</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C273" s="7"/>
+      <c r="D273" s="2"/>
       <c r="E273" s="5">
         <v>43306</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F273" s="5">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
         <v>43055</v>
       </c>
       <c r="B274" t="s">
-        <v>5</v>
-      </c>
-      <c r="C274" s="2"/>
-      <c r="D274" s="5">
-        <v>43307</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C274" s="7"/>
+      <c r="D274" s="2"/>
       <c r="E274" s="5">
         <v>43307</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F274" s="5">
+        <v>43307</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
         <v>43056</v>
       </c>
       <c r="B275" t="s">
-        <v>0</v>
-      </c>
-      <c r="C275" s="2"/>
-      <c r="D275" s="5">
-        <v>43308</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C275" s="7"/>
+      <c r="D275" s="2"/>
       <c r="E275" s="5">
         <v>43308</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F275" s="5">
+        <v>43308</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
         <v>43057</v>
       </c>
       <c r="B276" t="s">
-        <v>1</v>
-      </c>
-      <c r="C276" s="2"/>
-      <c r="D276" s="5">
-        <v>43309</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C276" s="8"/>
+      <c r="D276" s="2"/>
       <c r="E276" s="5">
         <v>43309</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F276" s="5">
+        <v>43309</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="3">
         <v>43058</v>
       </c>
       <c r="B277" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C277" s="2"/>
-      <c r="D277" s="5">
-        <v>43310</v>
-      </c>
+      <c r="D277" s="2"/>
       <c r="E277" s="5">
         <v>43310</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F277" s="5">
+        <v>43310</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
         <v>43059</v>
       </c>
       <c r="B278" t="s">
-        <v>3</v>
-      </c>
-      <c r="C278" s="2"/>
-      <c r="D278" s="5">
-        <v>43311</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C278" s="6">
+        <v>39</v>
+      </c>
+      <c r="D278" s="2"/>
       <c r="E278" s="5">
         <v>43311</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F278" s="5">
+        <v>43311</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="3">
         <v>43060</v>
       </c>
       <c r="B279" t="s">
-        <v>4</v>
-      </c>
-      <c r="C279" s="2"/>
-      <c r="D279" s="5">
-        <v>43312</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C279" s="7"/>
+      <c r="D279" s="2"/>
       <c r="E279" s="5">
         <v>43312</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F279" s="5">
+        <v>43312</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="3">
         <v>43061</v>
       </c>
       <c r="B280" t="s">
-        <v>4</v>
-      </c>
-      <c r="C280" s="2"/>
-      <c r="D280" s="5">
-        <v>43313</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C280" s="7"/>
+      <c r="D280" s="2"/>
       <c r="E280" s="5">
         <v>43313</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F280" s="5">
+        <v>43313</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="3">
         <v>43062</v>
       </c>
       <c r="B281" t="s">
-        <v>5</v>
-      </c>
-      <c r="C281" s="2"/>
-      <c r="D281" s="5">
-        <v>43314</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C281" s="7"/>
+      <c r="D281" s="2"/>
       <c r="E281" s="5">
         <v>43314</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F281" s="5">
+        <v>43314</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
         <v>43063</v>
       </c>
       <c r="B282" t="s">
-        <v>0</v>
-      </c>
-      <c r="C282" s="2"/>
-      <c r="D282" s="5">
-        <v>43315</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C282" s="7"/>
+      <c r="D282" s="2"/>
       <c r="E282" s="5">
         <v>43315</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F282" s="5">
+        <v>43315</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="3">
         <v>43064</v>
       </c>
       <c r="B283" t="s">
-        <v>1</v>
-      </c>
-      <c r="C283" s="2"/>
-      <c r="D283" s="5">
-        <v>43316</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C283" s="8"/>
+      <c r="D283" s="2"/>
       <c r="E283" s="5">
         <v>43316</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F283" s="5">
+        <v>43316</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="3">
         <v>43065</v>
       </c>
       <c r="B284" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C284" s="2"/>
-      <c r="D284" s="5">
-        <v>43317</v>
-      </c>
+      <c r="D284" s="2"/>
       <c r="E284" s="5">
         <v>43317</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F284" s="5">
+        <v>43317</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="3">
         <v>43066</v>
       </c>
       <c r="B285" t="s">
-        <v>3</v>
-      </c>
-      <c r="C285" s="2"/>
-      <c r="D285" s="5">
-        <v>43318</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C285" s="6">
+        <v>40</v>
+      </c>
+      <c r="D285" s="2"/>
       <c r="E285" s="5">
         <v>43318</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F285" s="5">
+        <v>43318</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="3">
         <v>43067</v>
       </c>
       <c r="B286" t="s">
-        <v>4</v>
-      </c>
-      <c r="C286" s="2"/>
-      <c r="D286" s="5">
-        <v>43319</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C286" s="7"/>
+      <c r="D286" s="2"/>
       <c r="E286" s="5">
         <v>43319</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F286" s="5">
+        <v>43319</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="3">
         <v>43068</v>
       </c>
       <c r="B287" t="s">
-        <v>4</v>
-      </c>
-      <c r="C287" s="2"/>
-      <c r="D287" s="5">
-        <v>43320</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C287" s="7"/>
+      <c r="D287" s="2"/>
       <c r="E287" s="5">
         <v>43320</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F287" s="5">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
         <v>43069</v>
       </c>
       <c r="B288" t="s">
-        <v>5</v>
-      </c>
-      <c r="C288" s="2"/>
-      <c r="D288" s="5">
-        <v>43321</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C288" s="7"/>
+      <c r="D288" s="2"/>
       <c r="E288" s="5">
         <v>43321</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F288" s="5">
+        <v>43321</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="3">
         <v>43070</v>
       </c>
       <c r="B289" t="s">
-        <v>0</v>
-      </c>
-      <c r="C289" s="2"/>
-      <c r="D289" s="5">
-        <v>43322</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C289" s="7"/>
+      <c r="D289" s="2"/>
       <c r="E289" s="5">
         <v>43322</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F289" s="5">
+        <v>43322</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
         <v>43071</v>
       </c>
       <c r="B290" t="s">
-        <v>1</v>
-      </c>
-      <c r="C290" s="2"/>
-      <c r="D290" s="5">
-        <v>43323</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C290" s="8"/>
+      <c r="D290" s="2"/>
       <c r="E290" s="5">
         <v>43323</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F290" s="5">
+        <v>43323</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="3">
         <v>43072</v>
       </c>
       <c r="B291" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C291" s="2"/>
-      <c r="D291" s="5">
-        <v>43324</v>
-      </c>
+      <c r="D291" s="2"/>
       <c r="E291" s="5">
         <v>43324</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F291" s="5">
+        <v>43324</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="3">
         <v>43073</v>
       </c>
       <c r="B292" t="s">
-        <v>3</v>
-      </c>
-      <c r="C292" s="2"/>
-      <c r="D292" s="5">
-        <v>43325</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C292" s="6">
+        <v>41</v>
+      </c>
+      <c r="D292" s="2"/>
       <c r="E292" s="5">
         <v>43325</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F292" s="5">
+        <v>43325</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="3">
         <v>43074</v>
       </c>
       <c r="B293" t="s">
-        <v>4</v>
-      </c>
-      <c r="C293" s="2"/>
-      <c r="D293" s="5">
-        <v>43326</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C293" s="7"/>
+      <c r="D293" s="2"/>
       <c r="E293" s="5">
         <v>43326</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F293" s="5">
+        <v>43326</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="3">
         <v>43075</v>
       </c>
       <c r="B294" t="s">
-        <v>4</v>
-      </c>
-      <c r="C294" s="2"/>
-      <c r="D294" s="5">
-        <v>43327</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C294" s="7"/>
+      <c r="D294" s="2"/>
       <c r="E294" s="5">
         <v>43327</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F294" s="5">
+        <v>43327</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="3">
         <v>43076</v>
       </c>
       <c r="B295" t="s">
-        <v>5</v>
-      </c>
-      <c r="C295" s="2"/>
-      <c r="D295" s="5">
-        <v>43328</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C295" s="7"/>
+      <c r="D295" s="2"/>
       <c r="E295" s="5">
         <v>43328</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F295" s="5">
+        <v>43328</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="3">
         <v>43077</v>
       </c>
       <c r="B296" t="s">
-        <v>0</v>
-      </c>
-      <c r="C296" s="2"/>
-      <c r="D296" s="5">
-        <v>43329</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C296" s="7"/>
+      <c r="D296" s="2"/>
       <c r="E296" s="5">
         <v>43329</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F296" s="5">
+        <v>43329</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="3">
         <v>43078</v>
       </c>
       <c r="B297" t="s">
-        <v>1</v>
-      </c>
-      <c r="C297" s="2"/>
-      <c r="D297" s="5">
-        <v>43330</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C297" s="8"/>
+      <c r="D297" s="2"/>
       <c r="E297" s="5">
         <v>43330</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F297" s="5">
+        <v>43330</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="3">
         <v>43079</v>
       </c>
       <c r="B298" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C298" s="2"/>
-      <c r="D298" s="5">
-        <v>43331</v>
-      </c>
+      <c r="D298" s="2"/>
       <c r="E298" s="5">
         <v>43331</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F298" s="5">
+        <v>43331</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="3">
         <v>43080</v>
       </c>
       <c r="B299" t="s">
-        <v>3</v>
-      </c>
-      <c r="C299" s="2"/>
-      <c r="D299" s="5">
-        <v>43332</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C299" s="6">
+        <v>42</v>
+      </c>
+      <c r="D299" s="2"/>
       <c r="E299" s="5">
         <v>43332</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F299" s="5">
+        <v>43332</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="3">
         <v>43081</v>
       </c>
       <c r="B300" t="s">
-        <v>4</v>
-      </c>
-      <c r="C300" s="2"/>
-      <c r="D300" s="5">
-        <v>43333</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C300" s="7"/>
+      <c r="D300" s="2"/>
       <c r="E300" s="5">
         <v>43333</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F300" s="5">
+        <v>43333</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="3">
         <v>43082</v>
       </c>
       <c r="B301" t="s">
-        <v>4</v>
-      </c>
-      <c r="C301" s="2"/>
-      <c r="D301" s="5">
-        <v>43334</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C301" s="7"/>
+      <c r="D301" s="2"/>
       <c r="E301" s="5">
         <v>43334</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F301" s="5">
+        <v>43334</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="3">
         <v>43083</v>
       </c>
       <c r="B302" t="s">
-        <v>5</v>
-      </c>
-      <c r="C302" s="2"/>
-      <c r="D302" s="5">
-        <v>43335</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C302" s="7"/>
+      <c r="D302" s="2"/>
       <c r="E302" s="5">
         <v>43335</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F302" s="5">
+        <v>43335</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="3">
         <v>43084</v>
       </c>
       <c r="B303" t="s">
-        <v>0</v>
-      </c>
-      <c r="C303" s="2"/>
-      <c r="D303" s="5">
-        <v>43336</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C303" s="7"/>
+      <c r="D303" s="2"/>
       <c r="E303" s="5">
         <v>43336</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F303" s="5">
+        <v>43336</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="3">
         <v>43085</v>
       </c>
       <c r="B304" t="s">
-        <v>1</v>
-      </c>
-      <c r="C304" s="2"/>
-      <c r="D304" s="5">
-        <v>43337</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C304" s="8"/>
+      <c r="D304" s="2"/>
       <c r="E304" s="5">
         <v>43337</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F304" s="5">
+        <v>43337</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="3">
         <v>43086</v>
       </c>
       <c r="B305" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C305" s="2"/>
-      <c r="D305" s="5">
-        <v>43338</v>
-      </c>
+      <c r="D305" s="2"/>
       <c r="E305" s="5">
         <v>43338</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F305" s="5">
+        <v>43338</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="3">
         <v>43087</v>
       </c>
       <c r="B306" t="s">
-        <v>3</v>
-      </c>
-      <c r="C306" s="2"/>
-      <c r="D306" s="5">
-        <v>43339</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C306" s="6">
+        <v>43</v>
+      </c>
+      <c r="D306" s="2"/>
       <c r="E306" s="5">
         <v>43339</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F306" s="5">
+        <v>43339</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="3">
         <v>43088</v>
       </c>
       <c r="B307" t="s">
-        <v>4</v>
-      </c>
-      <c r="C307" s="2"/>
-      <c r="D307" s="5">
-        <v>43340</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C307" s="7"/>
+      <c r="D307" s="2"/>
       <c r="E307" s="5">
         <v>43340</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F307" s="5">
+        <v>43340</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="3">
         <v>43089</v>
       </c>
       <c r="B308" t="s">
-        <v>4</v>
-      </c>
-      <c r="C308" s="2"/>
-      <c r="D308" s="5">
-        <v>43341</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C308" s="7"/>
+      <c r="D308" s="2"/>
       <c r="E308" s="5">
         <v>43341</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F308" s="5">
+        <v>43341</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="3">
         <v>43090</v>
       </c>
       <c r="B309" t="s">
-        <v>5</v>
-      </c>
-      <c r="C309" s="2"/>
-      <c r="D309" s="5">
-        <v>43342</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C309" s="7"/>
+      <c r="D309" s="2"/>
       <c r="E309" s="5">
         <v>43342</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F309" s="5">
+        <v>43342</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="3">
         <v>43091</v>
       </c>
       <c r="B310" t="s">
-        <v>0</v>
-      </c>
-      <c r="C310" s="2"/>
-      <c r="D310" s="5">
-        <v>43343</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C310" s="7"/>
+      <c r="D310" s="2"/>
       <c r="E310" s="5">
         <v>43343</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F310" s="5">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="3">
         <v>43092</v>
       </c>
       <c r="B311" t="s">
-        <v>1</v>
-      </c>
-      <c r="C311" s="2"/>
-      <c r="D311" s="5">
-        <v>43344</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C311" s="8"/>
+      <c r="D311" s="2"/>
       <c r="E311" s="5">
         <v>43344</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F311" s="5">
+        <v>43344</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="3">
         <v>43093</v>
       </c>
       <c r="B312" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C312" s="2"/>
-      <c r="D312" s="5">
-        <v>43345</v>
-      </c>
+      <c r="D312" s="2"/>
       <c r="E312" s="5">
         <v>43345</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F312" s="5">
+        <v>43345</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="3">
         <v>43094</v>
       </c>
       <c r="B313" t="s">
-        <v>3</v>
-      </c>
-      <c r="C313" s="2"/>
-      <c r="D313" s="5">
-        <v>43346</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C313" s="6">
+        <v>44</v>
+      </c>
+      <c r="D313" s="2"/>
       <c r="E313" s="5">
         <v>43346</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F313" s="5">
+        <v>43346</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="3">
         <v>43095</v>
       </c>
       <c r="B314" t="s">
-        <v>4</v>
-      </c>
-      <c r="C314" s="2"/>
-      <c r="D314" s="5">
-        <v>43347</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C314" s="7"/>
+      <c r="D314" s="2"/>
       <c r="E314" s="5">
         <v>43347</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F314" s="5">
+        <v>43347</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="3">
         <v>43096</v>
       </c>
       <c r="B315" t="s">
-        <v>4</v>
-      </c>
-      <c r="C315" s="2"/>
-      <c r="D315" s="5">
-        <v>43348</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C315" s="7"/>
+      <c r="D315" s="2"/>
       <c r="E315" s="5">
         <v>43348</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F315" s="5">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="3">
         <v>43097</v>
       </c>
       <c r="B316" t="s">
-        <v>5</v>
-      </c>
-      <c r="C316" s="2"/>
-      <c r="D316" s="5">
-        <v>43349</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C316" s="7"/>
+      <c r="D316" s="2"/>
       <c r="E316" s="5">
         <v>43349</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F316" s="5">
+        <v>43349</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="3">
         <v>43098</v>
       </c>
       <c r="B317" t="s">
-        <v>0</v>
-      </c>
-      <c r="C317" s="2"/>
-      <c r="D317" s="5">
-        <v>43350</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C317" s="7"/>
+      <c r="D317" s="2"/>
       <c r="E317" s="5">
         <v>43350</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F317" s="5">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="3">
         <v>43099</v>
       </c>
       <c r="B318" t="s">
-        <v>1</v>
-      </c>
-      <c r="C318" s="2"/>
-      <c r="D318" s="5">
-        <v>43351</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C318" s="8"/>
+      <c r="D318" s="2"/>
       <c r="E318" s="5">
         <v>43351</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F318" s="5">
+        <v>43351</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="3">
         <v>43100</v>
       </c>
       <c r="B319" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C319" s="2"/>
-      <c r="D319" s="5">
-        <v>43352</v>
-      </c>
+      <c r="D319" s="2"/>
       <c r="E319" s="5">
         <v>43352</v>
       </c>
+      <c r="F319" s="5">
+        <v>43352</v>
+      </c>
     </row>
     <row r="328" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E328" s="1"/>
@@ -5387,6 +5842,53 @@
       <c r="E347" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="C292:C297"/>
+    <mergeCell ref="C299:C304"/>
+    <mergeCell ref="C306:C311"/>
+    <mergeCell ref="C313:C318"/>
+    <mergeCell ref="C250:C255"/>
+    <mergeCell ref="C257:C262"/>
+    <mergeCell ref="C264:C269"/>
+    <mergeCell ref="C271:C276"/>
+    <mergeCell ref="C278:C283"/>
+    <mergeCell ref="C285:C290"/>
+    <mergeCell ref="C243:C248"/>
+    <mergeCell ref="C166:C171"/>
+    <mergeCell ref="C173:C178"/>
+    <mergeCell ref="C180:C185"/>
+    <mergeCell ref="C187:C192"/>
+    <mergeCell ref="C194:C199"/>
+    <mergeCell ref="C201:C206"/>
+    <mergeCell ref="C208:C213"/>
+    <mergeCell ref="C215:C220"/>
+    <mergeCell ref="C222:C227"/>
+    <mergeCell ref="C229:C234"/>
+    <mergeCell ref="C236:C241"/>
+    <mergeCell ref="C159:C164"/>
+    <mergeCell ref="C82:C87"/>
+    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="C96:C101"/>
+    <mergeCell ref="C103:C108"/>
+    <mergeCell ref="C110:C115"/>
+    <mergeCell ref="C117:C122"/>
+    <mergeCell ref="C124:C129"/>
+    <mergeCell ref="C131:C136"/>
+    <mergeCell ref="C138:C143"/>
+    <mergeCell ref="C145:C150"/>
+    <mergeCell ref="C152:C157"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="C61:C66"/>
+    <mergeCell ref="C68:C73"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/reservaTis/storage/archivos/calendario.xlsx
+++ b/reservaTis/storage/archivos/calendario.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gunnar/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gunnar/Documents/Estudiante/Tis/R2D2/reservaTis/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="33">
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
   <si>
     <t>Venta de matriculas 1-2017</t>
   </si>
@@ -111,30 +129,6 @@
   </si>
   <si>
     <t>actividad</t>
-  </si>
-  <si>
-    <t>Viernes</t>
-  </si>
-  <si>
-    <t>Sabado</t>
-  </si>
-  <si>
-    <t>Domingo</t>
-  </si>
-  <si>
-    <t>Lunes</t>
-  </si>
-  <si>
-    <t>Martes</t>
-  </si>
-  <si>
-    <t>Miercoles</t>
-  </si>
-  <si>
-    <t>Jueves</t>
-  </si>
-  <si>
-    <t>MIercoles</t>
   </si>
 </sst>
 </file>
@@ -522,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="B313" sqref="B313:B319"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -533,22 +527,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -556,11 +550,11 @@
         <v>42783</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E2" s="5">
         <v>41255</v>
@@ -574,7 +568,7 @@
         <v>42784</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -590,7 +584,7 @@
         <v>42785</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -606,13 +600,13 @@
         <v>42786</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E5" s="5">
         <v>41258</v>
@@ -626,11 +620,11 @@
         <v>42787</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E6" s="5">
         <v>41259</v>
@@ -644,11 +638,11 @@
         <v>42788</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E7" s="5">
         <v>41260</v>
@@ -662,11 +656,11 @@
         <v>42789</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E8" s="5">
         <v>41261</v>
@@ -680,11 +674,11 @@
         <v>42790</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E9" s="5">
         <v>41262</v>
@@ -698,7 +692,7 @@
         <v>42791</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="2"/>
@@ -714,7 +708,7 @@
         <v>42792</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -730,7 +724,7 @@
         <v>42793</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -748,7 +742,7 @@
         <v>42794</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="2"/>
@@ -764,11 +758,11 @@
         <v>42795</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E14" s="5">
         <v>41267</v>
@@ -782,11 +776,11 @@
         <v>42796</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E15" s="5">
         <v>41268</v>
@@ -800,11 +794,11 @@
         <v>42797</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E16" s="5">
         <v>41269</v>
@@ -818,7 +812,7 @@
         <v>42798</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="2"/>
@@ -834,7 +828,7 @@
         <v>42799</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -850,7 +844,7 @@
         <v>42800</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C19" s="6">
         <v>2</v>
@@ -868,7 +862,7 @@
         <v>42801</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="2"/>
@@ -884,7 +878,7 @@
         <v>42802</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="2"/>
@@ -900,11 +894,11 @@
         <v>42803</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E22" s="5">
         <v>41275</v>
@@ -918,11 +912,11 @@
         <v>42804</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E23" s="5">
         <v>41276</v>
@@ -936,7 +930,7 @@
         <v>42805</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="2"/>
@@ -952,7 +946,7 @@
         <v>42806</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -968,13 +962,13 @@
         <v>42807</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C26" s="6">
         <v>3</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E26" s="5">
         <v>41279</v>
@@ -988,7 +982,7 @@
         <v>42808</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -1004,7 +998,7 @@
         <v>42809</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="2"/>
@@ -1020,7 +1014,7 @@
         <v>42810</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -1036,7 +1030,7 @@
         <v>42811</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="2"/>
@@ -1052,7 +1046,7 @@
         <v>42812</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="2"/>
@@ -1068,7 +1062,7 @@
         <v>42813</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1084,13 +1078,13 @@
         <v>42814</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C33" s="6">
         <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E33" s="5">
         <v>41286</v>
@@ -1104,7 +1098,7 @@
         <v>42815</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -1120,7 +1114,7 @@
         <v>42816</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -1136,11 +1130,11 @@
         <v>42817</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E36" s="5">
         <v>41289</v>
@@ -1154,7 +1148,7 @@
         <v>42818</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -1170,7 +1164,7 @@
         <v>42819</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="2"/>
@@ -1186,7 +1180,7 @@
         <v>42820</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1202,7 +1196,7 @@
         <v>42821</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C40" s="6">
         <v>5</v>
@@ -1220,7 +1214,7 @@
         <v>42822</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -1236,7 +1230,7 @@
         <v>42823</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -1252,7 +1246,7 @@
         <v>42824</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -1268,7 +1262,7 @@
         <v>42825</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -1284,7 +1278,7 @@
         <v>42826</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="2"/>
@@ -1300,7 +1294,7 @@
         <v>42827</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1316,13 +1310,13 @@
         <v>42828</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C47" s="6">
         <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E47" s="5">
         <v>43080</v>
@@ -1336,7 +1330,7 @@
         <v>42829</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -1352,7 +1346,7 @@
         <v>42830</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -1368,7 +1362,7 @@
         <v>42831</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="2"/>
@@ -1384,7 +1378,7 @@
         <v>42832</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="2"/>
@@ -1400,7 +1394,7 @@
         <v>42833</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="2"/>
@@ -1416,7 +1410,7 @@
         <v>42834</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1432,7 +1426,7 @@
         <v>42835</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C54" s="6">
         <v>7</v>
@@ -1450,7 +1444,7 @@
         <v>42836</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="2"/>
@@ -1466,7 +1460,7 @@
         <v>42837</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="2"/>
@@ -1482,7 +1476,7 @@
         <v>42838</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="2"/>
@@ -1498,11 +1492,11 @@
         <v>42839</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E58" s="5">
         <v>43091</v>
@@ -1516,7 +1510,7 @@
         <v>42840</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="2"/>
@@ -1532,7 +1526,7 @@
         <v>42841</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -1548,13 +1542,13 @@
         <v>42842</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C61" s="6">
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E61" s="5">
         <v>43094</v>
@@ -1568,7 +1562,7 @@
         <v>42843</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="2"/>
@@ -1584,7 +1578,7 @@
         <v>42844</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="2"/>
@@ -1600,7 +1594,7 @@
         <v>42845</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="2"/>
@@ -1616,7 +1610,7 @@
         <v>42846</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="2"/>
@@ -1632,7 +1626,7 @@
         <v>42847</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="2"/>
@@ -1648,7 +1642,7 @@
         <v>42848</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -1664,7 +1658,7 @@
         <v>42849</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C68" s="6">
         <v>9</v>
@@ -1682,7 +1676,7 @@
         <v>42850</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="2"/>
@@ -1698,7 +1692,7 @@
         <v>42851</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="2"/>
@@ -1714,7 +1708,7 @@
         <v>42852</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="2"/>
@@ -1730,7 +1724,7 @@
         <v>42853</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="2"/>
@@ -1746,11 +1740,11 @@
         <v>42854</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E73" s="5">
         <v>43106</v>
@@ -1764,7 +1758,7 @@
         <v>42855</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -1780,7 +1774,7 @@
         <v>42856</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C75" s="6">
         <v>10</v>
@@ -1798,7 +1792,7 @@
         <v>42857</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="2"/>
@@ -1814,7 +1808,7 @@
         <v>42858</v>
       </c>
       <c r="B77" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="2"/>
@@ -1830,7 +1824,7 @@
         <v>42859</v>
       </c>
       <c r="B78" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="2"/>
@@ -1846,7 +1840,7 @@
         <v>42860</v>
       </c>
       <c r="B79" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="2"/>
@@ -1862,7 +1856,7 @@
         <v>42861</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="2"/>
@@ -1878,7 +1872,7 @@
         <v>42862</v>
       </c>
       <c r="B81" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -1894,7 +1888,7 @@
         <v>42863</v>
       </c>
       <c r="B82" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C82" s="6">
         <v>11</v>
@@ -1912,7 +1906,7 @@
         <v>42864</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="2"/>
@@ -1928,7 +1922,7 @@
         <v>42865</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="2"/>
@@ -1944,7 +1938,7 @@
         <v>42866</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="2"/>
@@ -1960,7 +1954,7 @@
         <v>42867</v>
       </c>
       <c r="B86" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="2"/>
@@ -1976,7 +1970,7 @@
         <v>42868</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="2"/>
@@ -1992,7 +1986,7 @@
         <v>42869</v>
       </c>
       <c r="B88" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -2008,7 +2002,7 @@
         <v>42870</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C89" s="6">
         <v>12</v>
@@ -2026,7 +2020,7 @@
         <v>42871</v>
       </c>
       <c r="B90" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="2"/>
@@ -2042,7 +2036,7 @@
         <v>42872</v>
       </c>
       <c r="B91" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="2"/>
@@ -2058,7 +2052,7 @@
         <v>42873</v>
       </c>
       <c r="B92" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="2"/>
@@ -2074,7 +2068,7 @@
         <v>42874</v>
       </c>
       <c r="B93" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="2"/>
@@ -2090,7 +2084,7 @@
         <v>42875</v>
       </c>
       <c r="B94" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C94" s="8"/>
       <c r="D94" s="2"/>
@@ -2106,7 +2100,7 @@
         <v>42876</v>
       </c>
       <c r="B95" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -2122,7 +2116,7 @@
         <v>42877</v>
       </c>
       <c r="B96" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C96" s="6">
         <v>13</v>
@@ -2140,7 +2134,7 @@
         <v>42878</v>
       </c>
       <c r="B97" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="2"/>
@@ -2156,7 +2150,7 @@
         <v>42879</v>
       </c>
       <c r="B98" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="2"/>
@@ -2172,7 +2166,7 @@
         <v>42880</v>
       </c>
       <c r="B99" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="2"/>
@@ -2188,7 +2182,7 @@
         <v>42881</v>
       </c>
       <c r="B100" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="2"/>
@@ -2204,7 +2198,7 @@
         <v>42882</v>
       </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="2"/>
@@ -2220,7 +2214,7 @@
         <v>42883</v>
       </c>
       <c r="B102" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -2236,7 +2230,7 @@
         <v>42884</v>
       </c>
       <c r="B103" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C103" s="6">
         <v>14</v>
@@ -2254,7 +2248,7 @@
         <v>42885</v>
       </c>
       <c r="B104" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="2"/>
@@ -2270,7 +2264,7 @@
         <v>42886</v>
       </c>
       <c r="B105" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="2"/>
@@ -2286,7 +2280,7 @@
         <v>42887</v>
       </c>
       <c r="B106" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="2"/>
@@ -2302,7 +2296,7 @@
         <v>42888</v>
       </c>
       <c r="B107" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="2"/>
@@ -2318,7 +2312,7 @@
         <v>42889</v>
       </c>
       <c r="B108" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C108" s="8"/>
       <c r="D108" s="2"/>
@@ -2334,7 +2328,7 @@
         <v>42890</v>
       </c>
       <c r="B109" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -2350,7 +2344,7 @@
         <v>42891</v>
       </c>
       <c r="B110" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C110" s="6">
         <v>15</v>
@@ -2368,7 +2362,7 @@
         <v>42892</v>
       </c>
       <c r="B111" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="2"/>
@@ -2384,7 +2378,7 @@
         <v>42893</v>
       </c>
       <c r="B112" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="2"/>
@@ -2400,11 +2394,11 @@
         <v>42894</v>
       </c>
       <c r="B113" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E113" s="5">
         <v>43146</v>
@@ -2418,7 +2412,7 @@
         <v>42895</v>
       </c>
       <c r="B114" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="2"/>
@@ -2434,7 +2428,7 @@
         <v>42896</v>
       </c>
       <c r="B115" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C115" s="8"/>
       <c r="D115" s="2"/>
@@ -2450,7 +2444,7 @@
         <v>42897</v>
       </c>
       <c r="B116" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -2466,7 +2460,7 @@
         <v>42898</v>
       </c>
       <c r="B117" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C117" s="6">
         <v>16</v>
@@ -2484,7 +2478,7 @@
         <v>42899</v>
       </c>
       <c r="B118" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="2"/>
@@ -2500,7 +2494,7 @@
         <v>42900</v>
       </c>
       <c r="B119" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="2"/>
@@ -2516,7 +2510,7 @@
         <v>42901</v>
       </c>
       <c r="B120" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="2"/>
@@ -2532,7 +2526,7 @@
         <v>42902</v>
       </c>
       <c r="B121" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="2"/>
@@ -2548,7 +2542,7 @@
         <v>42903</v>
       </c>
       <c r="B122" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C122" s="8"/>
       <c r="D122" s="2"/>
@@ -2564,7 +2558,7 @@
         <v>42904</v>
       </c>
       <c r="B123" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -2580,7 +2574,7 @@
         <v>42905</v>
       </c>
       <c r="B124" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C124" s="6">
         <v>17</v>
@@ -2598,11 +2592,11 @@
         <v>42906</v>
       </c>
       <c r="B125" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E125" s="5">
         <v>43158</v>
@@ -2616,11 +2610,11 @@
         <v>42907</v>
       </c>
       <c r="B126" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E126" s="5">
         <v>43159</v>
@@ -2634,7 +2628,7 @@
         <v>42908</v>
       </c>
       <c r="B127" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="2"/>
@@ -2650,7 +2644,7 @@
         <v>42909</v>
       </c>
       <c r="B128" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="2"/>
@@ -2666,7 +2660,7 @@
         <v>42910</v>
       </c>
       <c r="B129" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C129" s="8"/>
       <c r="D129" s="2"/>
@@ -2682,7 +2676,7 @@
         <v>42911</v>
       </c>
       <c r="B130" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -2698,7 +2692,7 @@
         <v>42912</v>
       </c>
       <c r="B131" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C131" s="6">
         <v>18</v>
@@ -2716,7 +2710,7 @@
         <v>42913</v>
       </c>
       <c r="B132" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="2"/>
@@ -2732,11 +2726,11 @@
         <v>42914</v>
       </c>
       <c r="B133" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E133" s="5">
         <v>43166</v>
@@ -2750,7 +2744,7 @@
         <v>42915</v>
       </c>
       <c r="B134" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="2"/>
@@ -2766,7 +2760,7 @@
         <v>42916</v>
       </c>
       <c r="B135" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="2"/>
@@ -2782,7 +2776,7 @@
         <v>42917</v>
       </c>
       <c r="B136" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C136" s="8"/>
       <c r="D136" s="2"/>
@@ -2798,7 +2792,7 @@
         <v>42918</v>
       </c>
       <c r="B137" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -2814,7 +2808,7 @@
         <v>42919</v>
       </c>
       <c r="B138" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C138" s="6">
         <v>19</v>
@@ -2832,7 +2826,7 @@
         <v>42920</v>
       </c>
       <c r="B139" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C139" s="7"/>
       <c r="D139" s="2"/>
@@ -2848,7 +2842,7 @@
         <v>42921</v>
       </c>
       <c r="B140" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="2"/>
@@ -2864,7 +2858,7 @@
         <v>42922</v>
       </c>
       <c r="B141" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="2"/>
@@ -2880,7 +2874,7 @@
         <v>42923</v>
       </c>
       <c r="B142" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="2"/>
@@ -2896,7 +2890,7 @@
         <v>42924</v>
       </c>
       <c r="B143" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C143" s="8"/>
       <c r="D143" s="2"/>
@@ -2912,7 +2906,7 @@
         <v>42925</v>
       </c>
       <c r="B144" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -2928,7 +2922,7 @@
         <v>42926</v>
       </c>
       <c r="B145" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C145" s="6">
         <v>20</v>
@@ -2946,11 +2940,11 @@
         <v>42927</v>
       </c>
       <c r="B146" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C146" s="7"/>
       <c r="D146" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E146" s="5">
         <v>43179</v>
@@ -2964,11 +2958,11 @@
         <v>42928</v>
       </c>
       <c r="B147" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E147" s="5">
         <v>43180</v>
@@ -2982,11 +2976,11 @@
         <v>42929</v>
       </c>
       <c r="B148" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C148" s="7"/>
       <c r="D148" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E148" s="5">
         <v>43181</v>
@@ -3000,11 +2994,11 @@
         <v>42930</v>
       </c>
       <c r="B149" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C149" s="7"/>
       <c r="D149" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E149" s="5">
         <v>43182</v>
@@ -3018,7 +3012,7 @@
         <v>42931</v>
       </c>
       <c r="B150" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C150" s="8"/>
       <c r="D150" s="2"/>
@@ -3034,7 +3028,7 @@
         <v>42932</v>
       </c>
       <c r="B151" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -3050,13 +3044,13 @@
         <v>42933</v>
       </c>
       <c r="B152" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C152" s="6">
         <v>21</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E152" s="5">
         <v>43185</v>
@@ -3070,7 +3064,7 @@
         <v>42934</v>
       </c>
       <c r="B153" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C153" s="7"/>
       <c r="D153" s="2"/>
@@ -3086,7 +3080,7 @@
         <v>42935</v>
       </c>
       <c r="B154" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C154" s="7"/>
       <c r="D154" s="2"/>
@@ -3102,7 +3096,7 @@
         <v>42936</v>
       </c>
       <c r="B155" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C155" s="7"/>
       <c r="D155" s="2"/>
@@ -3118,7 +3112,7 @@
         <v>42937</v>
       </c>
       <c r="B156" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C156" s="7"/>
       <c r="D156" s="2"/>
@@ -3134,7 +3128,7 @@
         <v>42938</v>
       </c>
       <c r="B157" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C157" s="8"/>
       <c r="D157" s="2"/>
@@ -3150,7 +3144,7 @@
         <v>42939</v>
       </c>
       <c r="B158" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -3166,7 +3160,7 @@
         <v>42940</v>
       </c>
       <c r="B159" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C159" s="6">
         <v>22</v>
@@ -3184,7 +3178,7 @@
         <v>42941</v>
       </c>
       <c r="B160" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C160" s="7"/>
       <c r="D160" s="2"/>
@@ -3200,7 +3194,7 @@
         <v>42942</v>
       </c>
       <c r="B161" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="2"/>
@@ -3216,7 +3210,7 @@
         <v>42943</v>
       </c>
       <c r="B162" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="2"/>
@@ -3232,7 +3226,7 @@
         <v>42944</v>
       </c>
       <c r="B163" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C163" s="7"/>
       <c r="D163" s="2"/>
@@ -3248,7 +3242,7 @@
         <v>42945</v>
       </c>
       <c r="B164" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C164" s="8"/>
       <c r="D164" s="2"/>
@@ -3264,7 +3258,7 @@
         <v>42946</v>
       </c>
       <c r="B165" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -3280,7 +3274,7 @@
         <v>42947</v>
       </c>
       <c r="B166" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C166" s="6">
         <v>23</v>
@@ -3298,7 +3292,7 @@
         <v>42948</v>
       </c>
       <c r="B167" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C167" s="7"/>
       <c r="D167" s="2"/>
@@ -3314,7 +3308,7 @@
         <v>42949</v>
       </c>
       <c r="B168" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C168" s="7"/>
       <c r="D168" s="2"/>
@@ -3330,7 +3324,7 @@
         <v>42950</v>
       </c>
       <c r="B169" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="2"/>
@@ -3346,7 +3340,7 @@
         <v>42951</v>
       </c>
       <c r="B170" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C170" s="7"/>
       <c r="D170" s="2"/>
@@ -3362,7 +3356,7 @@
         <v>42952</v>
       </c>
       <c r="B171" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C171" s="8"/>
       <c r="D171" s="2"/>
@@ -3378,7 +3372,7 @@
         <v>42953</v>
       </c>
       <c r="B172" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -3394,13 +3388,13 @@
         <v>42954</v>
       </c>
       <c r="B173" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C173" s="6">
         <v>24</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E173" s="5">
         <v>43206</v>
@@ -3414,11 +3408,11 @@
         <v>42955</v>
       </c>
       <c r="B174" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C174" s="7"/>
       <c r="D174" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E174" s="5">
         <v>43207</v>
@@ -3432,7 +3426,7 @@
         <v>42956</v>
       </c>
       <c r="B175" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="2"/>
@@ -3448,7 +3442,7 @@
         <v>42957</v>
       </c>
       <c r="B176" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C176" s="7"/>
       <c r="D176" s="2"/>
@@ -3464,7 +3458,7 @@
         <v>42958</v>
       </c>
       <c r="B177" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C177" s="7"/>
       <c r="D177" s="2"/>
@@ -3480,7 +3474,7 @@
         <v>42959</v>
       </c>
       <c r="B178" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C178" s="8"/>
       <c r="D178" s="2"/>
@@ -3496,7 +3490,7 @@
         <v>42960</v>
       </c>
       <c r="B179" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -3512,7 +3506,7 @@
         <v>42961</v>
       </c>
       <c r="B180" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C180" s="6">
         <v>25</v>
@@ -3530,7 +3524,7 @@
         <v>42962</v>
       </c>
       <c r="B181" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C181" s="7"/>
       <c r="D181" s="2"/>
@@ -3546,7 +3540,7 @@
         <v>42963</v>
       </c>
       <c r="B182" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C182" s="7"/>
       <c r="D182" s="2"/>
@@ -3562,7 +3556,7 @@
         <v>42964</v>
       </c>
       <c r="B183" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C183" s="7"/>
       <c r="D183" s="2"/>
@@ -3578,7 +3572,7 @@
         <v>42965</v>
       </c>
       <c r="B184" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C184" s="7"/>
       <c r="D184" s="2"/>
@@ -3594,7 +3588,7 @@
         <v>42966</v>
       </c>
       <c r="B185" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C185" s="8"/>
       <c r="D185" s="2"/>
@@ -3610,7 +3604,7 @@
         <v>42967</v>
       </c>
       <c r="B186" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -3626,7 +3620,7 @@
         <v>42968</v>
       </c>
       <c r="B187" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C187" s="6">
         <v>26</v>
@@ -3644,7 +3638,7 @@
         <v>42969</v>
       </c>
       <c r="B188" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C188" s="7"/>
       <c r="D188" s="2"/>
@@ -3660,7 +3654,7 @@
         <v>42970</v>
       </c>
       <c r="B189" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C189" s="7"/>
       <c r="D189" s="2"/>
@@ -3676,7 +3670,7 @@
         <v>42971</v>
       </c>
       <c r="B190" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C190" s="7"/>
       <c r="D190" s="2"/>
@@ -3692,7 +3686,7 @@
         <v>42972</v>
       </c>
       <c r="B191" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C191" s="7"/>
       <c r="D191" s="2"/>
@@ -3708,7 +3702,7 @@
         <v>42973</v>
       </c>
       <c r="B192" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C192" s="8"/>
       <c r="D192" s="2"/>
@@ -3724,7 +3718,7 @@
         <v>42974</v>
       </c>
       <c r="B193" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -3740,7 +3734,7 @@
         <v>42975</v>
       </c>
       <c r="B194" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C194" s="6">
         <v>27</v>
@@ -3758,7 +3752,7 @@
         <v>42976</v>
       </c>
       <c r="B195" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C195" s="7"/>
       <c r="D195" s="2"/>
@@ -3774,7 +3768,7 @@
         <v>42977</v>
       </c>
       <c r="B196" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C196" s="7"/>
       <c r="D196" s="2"/>
@@ -3790,7 +3784,7 @@
         <v>42978</v>
       </c>
       <c r="B197" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C197" s="7"/>
       <c r="D197" s="2"/>
@@ -3806,7 +3800,7 @@
         <v>42979</v>
       </c>
       <c r="B198" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C198" s="7"/>
       <c r="D198" s="2"/>
@@ -3822,7 +3816,7 @@
         <v>42980</v>
       </c>
       <c r="B199" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C199" s="8"/>
       <c r="D199" s="2"/>
@@ -3838,7 +3832,7 @@
         <v>42981</v>
       </c>
       <c r="B200" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -3854,7 +3848,7 @@
         <v>42982</v>
       </c>
       <c r="B201" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C201" s="6">
         <v>28</v>
@@ -3872,7 +3866,7 @@
         <v>42983</v>
       </c>
       <c r="B202" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C202" s="7"/>
       <c r="D202" s="2"/>
@@ -3888,7 +3882,7 @@
         <v>42984</v>
       </c>
       <c r="B203" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C203" s="7"/>
       <c r="D203" s="2"/>
@@ -3904,7 +3898,7 @@
         <v>42985</v>
       </c>
       <c r="B204" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C204" s="7"/>
       <c r="D204" s="2"/>
@@ -3920,7 +3914,7 @@
         <v>42986</v>
       </c>
       <c r="B205" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C205" s="7"/>
       <c r="D205" s="2"/>
@@ -3936,7 +3930,7 @@
         <v>42987</v>
       </c>
       <c r="B206" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C206" s="8"/>
       <c r="D206" s="2"/>
@@ -3952,7 +3946,7 @@
         <v>42988</v>
       </c>
       <c r="B207" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -3968,7 +3962,7 @@
         <v>42989</v>
       </c>
       <c r="B208" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C208" s="6">
         <v>29</v>
@@ -3986,7 +3980,7 @@
         <v>42990</v>
       </c>
       <c r="B209" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C209" s="7"/>
       <c r="D209" s="2"/>
@@ -4002,7 +3996,7 @@
         <v>42991</v>
       </c>
       <c r="B210" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C210" s="7"/>
       <c r="D210" s="2"/>
@@ -4018,7 +4012,7 @@
         <v>42992</v>
       </c>
       <c r="B211" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C211" s="7"/>
       <c r="D211" s="2"/>
@@ -4034,7 +4028,7 @@
         <v>42993</v>
       </c>
       <c r="B212" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C212" s="7"/>
       <c r="D212" s="2"/>
@@ -4050,7 +4044,7 @@
         <v>42994</v>
       </c>
       <c r="B213" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C213" s="8"/>
       <c r="D213" s="2"/>
@@ -4066,7 +4060,7 @@
         <v>42995</v>
       </c>
       <c r="B214" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -4082,7 +4076,7 @@
         <v>42996</v>
       </c>
       <c r="B215" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C215" s="6">
         <v>30</v>
@@ -4100,7 +4094,7 @@
         <v>42997</v>
       </c>
       <c r="B216" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C216" s="7"/>
       <c r="D216" s="2"/>
@@ -4116,7 +4110,7 @@
         <v>42998</v>
       </c>
       <c r="B217" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C217" s="7"/>
       <c r="D217" s="2"/>
@@ -4132,7 +4126,7 @@
         <v>42999</v>
       </c>
       <c r="B218" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C218" s="7"/>
       <c r="D218" s="2"/>
@@ -4148,7 +4142,7 @@
         <v>43000</v>
       </c>
       <c r="B219" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C219" s="7"/>
       <c r="D219" s="2"/>
@@ -4164,7 +4158,7 @@
         <v>43001</v>
       </c>
       <c r="B220" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C220" s="8"/>
       <c r="D220" s="2"/>
@@ -4180,7 +4174,7 @@
         <v>43002</v>
       </c>
       <c r="B221" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -4196,7 +4190,7 @@
         <v>43003</v>
       </c>
       <c r="B222" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C222" s="6">
         <v>31</v>
@@ -4214,7 +4208,7 @@
         <v>43004</v>
       </c>
       <c r="B223" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C223" s="7"/>
       <c r="D223" s="2"/>
@@ -4230,7 +4224,7 @@
         <v>43005</v>
       </c>
       <c r="B224" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C224" s="7"/>
       <c r="D224" s="2"/>
@@ -4246,7 +4240,7 @@
         <v>43006</v>
       </c>
       <c r="B225" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C225" s="7"/>
       <c r="D225" s="2"/>
@@ -4262,7 +4256,7 @@
         <v>43007</v>
       </c>
       <c r="B226" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C226" s="7"/>
       <c r="D226" s="2"/>
@@ -4278,7 +4272,7 @@
         <v>43008</v>
       </c>
       <c r="B227" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C227" s="8"/>
       <c r="D227" s="2"/>
@@ -4294,7 +4288,7 @@
         <v>43009</v>
       </c>
       <c r="B228" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -4310,7 +4304,7 @@
         <v>43010</v>
       </c>
       <c r="B229" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C229" s="6">
         <v>32</v>
@@ -4328,7 +4322,7 @@
         <v>43011</v>
       </c>
       <c r="B230" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C230" s="7"/>
       <c r="D230" s="2"/>
@@ -4344,7 +4338,7 @@
         <v>43012</v>
       </c>
       <c r="B231" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C231" s="7"/>
       <c r="D231" s="2"/>
@@ -4360,7 +4354,7 @@
         <v>43013</v>
       </c>
       <c r="B232" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C232" s="7"/>
       <c r="D232" s="2"/>
@@ -4376,7 +4370,7 @@
         <v>43014</v>
       </c>
       <c r="B233" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C233" s="7"/>
       <c r="D233" s="2"/>
@@ -4392,7 +4386,7 @@
         <v>43015</v>
       </c>
       <c r="B234" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C234" s="8"/>
       <c r="D234" s="2"/>
@@ -4408,7 +4402,7 @@
         <v>43016</v>
       </c>
       <c r="B235" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -4424,7 +4418,7 @@
         <v>43017</v>
       </c>
       <c r="B236" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C236" s="6">
         <v>33</v>
@@ -4442,7 +4436,7 @@
         <v>43018</v>
       </c>
       <c r="B237" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C237" s="7"/>
       <c r="D237" s="2"/>
@@ -4458,7 +4452,7 @@
         <v>43019</v>
       </c>
       <c r="B238" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C238" s="7"/>
       <c r="D238" s="2"/>
@@ -4474,7 +4468,7 @@
         <v>43020</v>
       </c>
       <c r="B239" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C239" s="7"/>
       <c r="D239" s="2"/>
@@ -4490,7 +4484,7 @@
         <v>43021</v>
       </c>
       <c r="B240" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C240" s="7"/>
       <c r="D240" s="2"/>
@@ -4506,7 +4500,7 @@
         <v>43022</v>
       </c>
       <c r="B241" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C241" s="8"/>
       <c r="D241" s="2"/>
@@ -4522,7 +4516,7 @@
         <v>43023</v>
       </c>
       <c r="B242" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -4538,7 +4532,7 @@
         <v>43024</v>
       </c>
       <c r="B243" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C243" s="6">
         <v>34</v>
@@ -4556,7 +4550,7 @@
         <v>43025</v>
       </c>
       <c r="B244" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C244" s="7"/>
       <c r="D244" s="2"/>
@@ -4572,7 +4566,7 @@
         <v>43026</v>
       </c>
       <c r="B245" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C245" s="7"/>
       <c r="D245" s="2"/>
@@ -4588,7 +4582,7 @@
         <v>43027</v>
       </c>
       <c r="B246" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C246" s="7"/>
       <c r="D246" s="2"/>
@@ -4604,7 +4598,7 @@
         <v>43028</v>
       </c>
       <c r="B247" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C247" s="7"/>
       <c r="D247" s="2"/>
@@ -4620,7 +4614,7 @@
         <v>43029</v>
       </c>
       <c r="B248" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C248" s="8"/>
       <c r="D248" s="2"/>
@@ -4636,7 +4630,7 @@
         <v>43030</v>
       </c>
       <c r="B249" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
@@ -4652,7 +4646,7 @@
         <v>43031</v>
       </c>
       <c r="B250" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C250" s="6">
         <v>35</v>
@@ -4670,7 +4664,7 @@
         <v>43032</v>
       </c>
       <c r="B251" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C251" s="7"/>
       <c r="D251" s="2"/>
@@ -4686,7 +4680,7 @@
         <v>43033</v>
       </c>
       <c r="B252" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C252" s="7"/>
       <c r="D252" s="2"/>
@@ -4702,7 +4696,7 @@
         <v>43034</v>
       </c>
       <c r="B253" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C253" s="7"/>
       <c r="D253" s="2"/>
@@ -4718,7 +4712,7 @@
         <v>43035</v>
       </c>
       <c r="B254" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C254" s="7"/>
       <c r="D254" s="2"/>
@@ -4734,7 +4728,7 @@
         <v>43036</v>
       </c>
       <c r="B255" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C255" s="8"/>
       <c r="D255" s="2"/>
@@ -4750,7 +4744,7 @@
         <v>43037</v>
       </c>
       <c r="B256" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
@@ -4766,7 +4760,7 @@
         <v>43038</v>
       </c>
       <c r="B257" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C257" s="6">
         <v>36</v>
@@ -4784,7 +4778,7 @@
         <v>43039</v>
       </c>
       <c r="B258" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C258" s="7"/>
       <c r="D258" s="2"/>
@@ -4800,7 +4794,7 @@
         <v>43040</v>
       </c>
       <c r="B259" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C259" s="7"/>
       <c r="D259" s="2"/>
@@ -4816,7 +4810,7 @@
         <v>43041</v>
       </c>
       <c r="B260" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C260" s="7"/>
       <c r="D260" s="2"/>
@@ -4832,7 +4826,7 @@
         <v>43042</v>
       </c>
       <c r="B261" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C261" s="7"/>
       <c r="D261" s="2"/>
@@ -4848,7 +4842,7 @@
         <v>43043</v>
       </c>
       <c r="B262" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C262" s="8"/>
       <c r="D262" s="2"/>
@@ -4864,7 +4858,7 @@
         <v>43044</v>
       </c>
       <c r="B263" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
@@ -4880,7 +4874,7 @@
         <v>43045</v>
       </c>
       <c r="B264" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C264" s="6">
         <v>37</v>
@@ -4898,7 +4892,7 @@
         <v>43046</v>
       </c>
       <c r="B265" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C265" s="7"/>
       <c r="D265" s="2"/>
@@ -4914,7 +4908,7 @@
         <v>43047</v>
       </c>
       <c r="B266" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C266" s="7"/>
       <c r="D266" s="2"/>
@@ -4930,7 +4924,7 @@
         <v>43048</v>
       </c>
       <c r="B267" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C267" s="7"/>
       <c r="D267" s="2"/>
@@ -4946,7 +4940,7 @@
         <v>43049</v>
       </c>
       <c r="B268" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C268" s="7"/>
       <c r="D268" s="2"/>
@@ -4962,7 +4956,7 @@
         <v>43050</v>
       </c>
       <c r="B269" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C269" s="8"/>
       <c r="D269" s="2"/>
@@ -4978,7 +4972,7 @@
         <v>43051</v>
       </c>
       <c r="B270" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
@@ -4994,7 +4988,7 @@
         <v>43052</v>
       </c>
       <c r="B271" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C271" s="6">
         <v>38</v>
@@ -5012,7 +5006,7 @@
         <v>43053</v>
       </c>
       <c r="B272" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C272" s="7"/>
       <c r="D272" s="2"/>
@@ -5028,7 +5022,7 @@
         <v>43054</v>
       </c>
       <c r="B273" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C273" s="7"/>
       <c r="D273" s="2"/>
@@ -5044,7 +5038,7 @@
         <v>43055</v>
       </c>
       <c r="B274" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C274" s="7"/>
       <c r="D274" s="2"/>
@@ -5060,7 +5054,7 @@
         <v>43056</v>
       </c>
       <c r="B275" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C275" s="7"/>
       <c r="D275" s="2"/>
@@ -5076,7 +5070,7 @@
         <v>43057</v>
       </c>
       <c r="B276" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C276" s="8"/>
       <c r="D276" s="2"/>
@@ -5092,7 +5086,7 @@
         <v>43058</v>
       </c>
       <c r="B277" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
@@ -5108,7 +5102,7 @@
         <v>43059</v>
       </c>
       <c r="B278" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C278" s="6">
         <v>39</v>
@@ -5126,7 +5120,7 @@
         <v>43060</v>
       </c>
       <c r="B279" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C279" s="7"/>
       <c r="D279" s="2"/>
@@ -5142,7 +5136,7 @@
         <v>43061</v>
       </c>
       <c r="B280" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C280" s="7"/>
       <c r="D280" s="2"/>
@@ -5158,7 +5152,7 @@
         <v>43062</v>
       </c>
       <c r="B281" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C281" s="7"/>
       <c r="D281" s="2"/>
@@ -5174,7 +5168,7 @@
         <v>43063</v>
       </c>
       <c r="B282" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C282" s="7"/>
       <c r="D282" s="2"/>
@@ -5190,7 +5184,7 @@
         <v>43064</v>
       </c>
       <c r="B283" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C283" s="8"/>
       <c r="D283" s="2"/>
@@ -5206,7 +5200,7 @@
         <v>43065</v>
       </c>
       <c r="B284" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
@@ -5222,7 +5216,7 @@
         <v>43066</v>
       </c>
       <c r="B285" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C285" s="6">
         <v>40</v>
@@ -5240,7 +5234,7 @@
         <v>43067</v>
       </c>
       <c r="B286" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C286" s="7"/>
       <c r="D286" s="2"/>
@@ -5256,7 +5250,7 @@
         <v>43068</v>
       </c>
       <c r="B287" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C287" s="7"/>
       <c r="D287" s="2"/>
@@ -5272,7 +5266,7 @@
         <v>43069</v>
       </c>
       <c r="B288" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C288" s="7"/>
       <c r="D288" s="2"/>
@@ -5288,7 +5282,7 @@
         <v>43070</v>
       </c>
       <c r="B289" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C289" s="7"/>
       <c r="D289" s="2"/>
@@ -5304,7 +5298,7 @@
         <v>43071</v>
       </c>
       <c r="B290" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C290" s="8"/>
       <c r="D290" s="2"/>
@@ -5320,7 +5314,7 @@
         <v>43072</v>
       </c>
       <c r="B291" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
@@ -5336,7 +5330,7 @@
         <v>43073</v>
       </c>
       <c r="B292" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C292" s="6">
         <v>41</v>
@@ -5354,7 +5348,7 @@
         <v>43074</v>
       </c>
       <c r="B293" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C293" s="7"/>
       <c r="D293" s="2"/>
@@ -5370,7 +5364,7 @@
         <v>43075</v>
       </c>
       <c r="B294" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C294" s="7"/>
       <c r="D294" s="2"/>
@@ -5386,7 +5380,7 @@
         <v>43076</v>
       </c>
       <c r="B295" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C295" s="7"/>
       <c r="D295" s="2"/>
@@ -5402,7 +5396,7 @@
         <v>43077</v>
       </c>
       <c r="B296" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C296" s="7"/>
       <c r="D296" s="2"/>
@@ -5418,7 +5412,7 @@
         <v>43078</v>
       </c>
       <c r="B297" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C297" s="8"/>
       <c r="D297" s="2"/>
@@ -5434,7 +5428,7 @@
         <v>43079</v>
       </c>
       <c r="B298" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
@@ -5450,7 +5444,7 @@
         <v>43080</v>
       </c>
       <c r="B299" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C299" s="6">
         <v>42</v>
@@ -5468,7 +5462,7 @@
         <v>43081</v>
       </c>
       <c r="B300" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C300" s="7"/>
       <c r="D300" s="2"/>
@@ -5484,7 +5478,7 @@
         <v>43082</v>
       </c>
       <c r="B301" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C301" s="7"/>
       <c r="D301" s="2"/>
@@ -5500,7 +5494,7 @@
         <v>43083</v>
       </c>
       <c r="B302" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C302" s="7"/>
       <c r="D302" s="2"/>
@@ -5516,7 +5510,7 @@
         <v>43084</v>
       </c>
       <c r="B303" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C303" s="7"/>
       <c r="D303" s="2"/>
@@ -5532,7 +5526,7 @@
         <v>43085</v>
       </c>
       <c r="B304" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C304" s="8"/>
       <c r="D304" s="2"/>
@@ -5548,7 +5542,7 @@
         <v>43086</v>
       </c>
       <c r="B305" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
@@ -5564,7 +5558,7 @@
         <v>43087</v>
       </c>
       <c r="B306" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C306" s="6">
         <v>43</v>
@@ -5582,7 +5576,7 @@
         <v>43088</v>
       </c>
       <c r="B307" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C307" s="7"/>
       <c r="D307" s="2"/>
@@ -5598,7 +5592,7 @@
         <v>43089</v>
       </c>
       <c r="B308" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C308" s="7"/>
       <c r="D308" s="2"/>
@@ -5614,7 +5608,7 @@
         <v>43090</v>
       </c>
       <c r="B309" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C309" s="7"/>
       <c r="D309" s="2"/>
@@ -5630,7 +5624,7 @@
         <v>43091</v>
       </c>
       <c r="B310" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C310" s="7"/>
       <c r="D310" s="2"/>
@@ -5646,7 +5640,7 @@
         <v>43092</v>
       </c>
       <c r="B311" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C311" s="8"/>
       <c r="D311" s="2"/>
@@ -5662,7 +5656,7 @@
         <v>43093</v>
       </c>
       <c r="B312" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
@@ -5678,7 +5672,7 @@
         <v>43094</v>
       </c>
       <c r="B313" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C313" s="6">
         <v>44</v>
@@ -5696,7 +5690,7 @@
         <v>43095</v>
       </c>
       <c r="B314" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C314" s="7"/>
       <c r="D314" s="2"/>
@@ -5712,7 +5706,7 @@
         <v>43096</v>
       </c>
       <c r="B315" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C315" s="7"/>
       <c r="D315" s="2"/>
@@ -5728,7 +5722,7 @@
         <v>43097</v>
       </c>
       <c r="B316" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C316" s="7"/>
       <c r="D316" s="2"/>
@@ -5744,7 +5738,7 @@
         <v>43098</v>
       </c>
       <c r="B317" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C317" s="7"/>
       <c r="D317" s="2"/>
@@ -5760,7 +5754,7 @@
         <v>43099</v>
       </c>
       <c r="B318" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C318" s="8"/>
       <c r="D318" s="2"/>
@@ -5776,7 +5770,7 @@
         <v>43100</v>
       </c>
       <c r="B319" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
@@ -5843,16 +5837,29 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C292:C297"/>
-    <mergeCell ref="C299:C304"/>
-    <mergeCell ref="C306:C311"/>
-    <mergeCell ref="C313:C318"/>
-    <mergeCell ref="C250:C255"/>
-    <mergeCell ref="C257:C262"/>
-    <mergeCell ref="C264:C269"/>
-    <mergeCell ref="C271:C276"/>
-    <mergeCell ref="C278:C283"/>
-    <mergeCell ref="C285:C290"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="C61:C66"/>
+    <mergeCell ref="C68:C73"/>
+    <mergeCell ref="C159:C164"/>
+    <mergeCell ref="C82:C87"/>
+    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="C96:C101"/>
+    <mergeCell ref="C103:C108"/>
+    <mergeCell ref="C110:C115"/>
+    <mergeCell ref="C117:C122"/>
+    <mergeCell ref="C124:C129"/>
+    <mergeCell ref="C131:C136"/>
+    <mergeCell ref="C138:C143"/>
+    <mergeCell ref="C145:C150"/>
+    <mergeCell ref="C152:C157"/>
     <mergeCell ref="C243:C248"/>
     <mergeCell ref="C166:C171"/>
     <mergeCell ref="C173:C178"/>
@@ -5865,29 +5872,16 @@
     <mergeCell ref="C222:C227"/>
     <mergeCell ref="C229:C234"/>
     <mergeCell ref="C236:C241"/>
-    <mergeCell ref="C159:C164"/>
-    <mergeCell ref="C82:C87"/>
-    <mergeCell ref="C89:C94"/>
-    <mergeCell ref="C96:C101"/>
-    <mergeCell ref="C103:C108"/>
-    <mergeCell ref="C110:C115"/>
-    <mergeCell ref="C117:C122"/>
-    <mergeCell ref="C124:C129"/>
-    <mergeCell ref="C131:C136"/>
-    <mergeCell ref="C138:C143"/>
-    <mergeCell ref="C145:C150"/>
-    <mergeCell ref="C152:C157"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C47:C52"/>
-    <mergeCell ref="C54:C59"/>
-    <mergeCell ref="C61:C66"/>
-    <mergeCell ref="C68:C73"/>
+    <mergeCell ref="C292:C297"/>
+    <mergeCell ref="C299:C304"/>
+    <mergeCell ref="C306:C311"/>
+    <mergeCell ref="C313:C318"/>
+    <mergeCell ref="C250:C255"/>
+    <mergeCell ref="C257:C262"/>
+    <mergeCell ref="C264:C269"/>
+    <mergeCell ref="C271:C276"/>
+    <mergeCell ref="C278:C283"/>
+    <mergeCell ref="C285:C290"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/reservaTis/storage/archivos/calendario.xlsx
+++ b/reservaTis/storage/archivos/calendario.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gunnar/Documents/Estudiante/Tis/R2D2/reservaTis/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gunnar/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,25 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="33">
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="35">
   <si>
     <t>Venta de matriculas 1-2017</t>
   </si>
@@ -129,6 +111,30 @@
   </si>
   <si>
     <t>actividad</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t>Sabado</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>Miercoles</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>MIercoles</t>
   </si>
 </sst>
 </file>
@@ -516,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F347"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="B313" sqref="B313:B319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -527,22 +533,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -550,11 +556,11 @@
         <v>42783</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5">
         <v>41255</v>
@@ -568,7 +574,7 @@
         <v>42784</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -584,7 +590,7 @@
         <v>42785</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -600,13 +606,13 @@
         <v>42786</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E5" s="5">
         <v>41258</v>
@@ -620,11 +626,11 @@
         <v>42787</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="5">
         <v>41259</v>
@@ -638,11 +644,11 @@
         <v>42788</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="5">
         <v>41260</v>
@@ -656,11 +662,11 @@
         <v>42789</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5">
         <v>41261</v>
@@ -674,11 +680,11 @@
         <v>42790</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5">
         <v>41262</v>
@@ -692,7 +698,7 @@
         <v>42791</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="2"/>
@@ -708,7 +714,7 @@
         <v>42792</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -724,7 +730,7 @@
         <v>42793</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -742,7 +748,7 @@
         <v>42794</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="2"/>
@@ -758,11 +764,11 @@
         <v>42795</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E14" s="5">
         <v>41267</v>
@@ -776,11 +782,11 @@
         <v>42796</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E15" s="5">
         <v>41268</v>
@@ -794,11 +800,11 @@
         <v>42797</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E16" s="5">
         <v>41269</v>
@@ -812,7 +818,7 @@
         <v>42798</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="2"/>
@@ -828,7 +834,7 @@
         <v>42799</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -844,7 +850,7 @@
         <v>42800</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C19" s="6">
         <v>2</v>
@@ -862,7 +868,7 @@
         <v>42801</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="2"/>
@@ -878,7 +884,7 @@
         <v>42802</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="2"/>
@@ -894,11 +900,11 @@
         <v>42803</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E22" s="5">
         <v>41275</v>
@@ -912,11 +918,11 @@
         <v>42804</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E23" s="5">
         <v>41276</v>
@@ -930,7 +936,7 @@
         <v>42805</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="2"/>
@@ -946,7 +952,7 @@
         <v>42806</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -962,13 +968,13 @@
         <v>42807</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C26" s="6">
         <v>3</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E26" s="5">
         <v>41279</v>
@@ -982,7 +988,7 @@
         <v>42808</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
@@ -998,7 +1004,7 @@
         <v>42809</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="2"/>
@@ -1014,7 +1020,7 @@
         <v>42810</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
@@ -1030,7 +1036,7 @@
         <v>42811</v>
       </c>
       <c r="B30" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="2"/>
@@ -1046,7 +1052,7 @@
         <v>42812</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="2"/>
@@ -1062,7 +1068,7 @@
         <v>42813</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1078,13 +1084,13 @@
         <v>42814</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C33" s="6">
         <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E33" s="5">
         <v>41286</v>
@@ -1098,7 +1104,7 @@
         <v>42815</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -1114,7 +1120,7 @@
         <v>42816</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
@@ -1130,11 +1136,11 @@
         <v>42817</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E36" s="5">
         <v>41289</v>
@@ -1148,7 +1154,7 @@
         <v>42818</v>
       </c>
       <c r="B37" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
@@ -1164,7 +1170,7 @@
         <v>42819</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="2"/>
@@ -1180,7 +1186,7 @@
         <v>42820</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1196,7 +1202,7 @@
         <v>42821</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C40" s="6">
         <v>5</v>
@@ -1214,7 +1220,7 @@
         <v>42822</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
@@ -1230,7 +1236,7 @@
         <v>42823</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
@@ -1246,7 +1252,7 @@
         <v>42824</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
@@ -1262,7 +1268,7 @@
         <v>42825</v>
       </c>
       <c r="B44" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
@@ -1278,7 +1284,7 @@
         <v>42826</v>
       </c>
       <c r="B45" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="2"/>
@@ -1294,7 +1300,7 @@
         <v>42827</v>
       </c>
       <c r="B46" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1310,13 +1316,13 @@
         <v>42828</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C47" s="6">
         <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E47" s="5">
         <v>43080</v>
@@ -1330,7 +1336,7 @@
         <v>42829</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
@@ -1346,7 +1352,7 @@
         <v>42830</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
@@ -1362,7 +1368,7 @@
         <v>42831</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="2"/>
@@ -1378,7 +1384,7 @@
         <v>42832</v>
       </c>
       <c r="B51" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="2"/>
@@ -1394,7 +1400,7 @@
         <v>42833</v>
       </c>
       <c r="B52" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="2"/>
@@ -1410,7 +1416,7 @@
         <v>42834</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1426,7 +1432,7 @@
         <v>42835</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C54" s="6">
         <v>7</v>
@@ -1444,7 +1450,7 @@
         <v>42836</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="2"/>
@@ -1460,7 +1466,7 @@
         <v>42837</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="2"/>
@@ -1476,7 +1482,7 @@
         <v>42838</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="2"/>
@@ -1492,11 +1498,11 @@
         <v>42839</v>
       </c>
       <c r="B58" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E58" s="5">
         <v>43091</v>
@@ -1510,7 +1516,7 @@
         <v>42840</v>
       </c>
       <c r="B59" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="2"/>
@@ -1526,7 +1532,7 @@
         <v>42841</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -1542,13 +1548,13 @@
         <v>42842</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C61" s="6">
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E61" s="5">
         <v>43094</v>
@@ -1562,7 +1568,7 @@
         <v>42843</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="2"/>
@@ -1578,7 +1584,7 @@
         <v>42844</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="2"/>
@@ -1594,7 +1600,7 @@
         <v>42845</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="2"/>
@@ -1610,7 +1616,7 @@
         <v>42846</v>
       </c>
       <c r="B65" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="2"/>
@@ -1626,7 +1632,7 @@
         <v>42847</v>
       </c>
       <c r="B66" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="2"/>
@@ -1642,7 +1648,7 @@
         <v>42848</v>
       </c>
       <c r="B67" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -1658,7 +1664,7 @@
         <v>42849</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C68" s="6">
         <v>9</v>
@@ -1676,7 +1682,7 @@
         <v>42850</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="2"/>
@@ -1692,7 +1698,7 @@
         <v>42851</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="2"/>
@@ -1708,7 +1714,7 @@
         <v>42852</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="2"/>
@@ -1724,7 +1730,7 @@
         <v>42853</v>
       </c>
       <c r="B72" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="2"/>
@@ -1740,11 +1746,11 @@
         <v>42854</v>
       </c>
       <c r="B73" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E73" s="5">
         <v>43106</v>
@@ -1758,7 +1764,7 @@
         <v>42855</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -1774,7 +1780,7 @@
         <v>42856</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C75" s="6">
         <v>10</v>
@@ -1792,7 +1798,7 @@
         <v>42857</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="2"/>
@@ -1808,7 +1814,7 @@
         <v>42858</v>
       </c>
       <c r="B77" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="2"/>
@@ -1824,7 +1830,7 @@
         <v>42859</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="2"/>
@@ -1840,7 +1846,7 @@
         <v>42860</v>
       </c>
       <c r="B79" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="2"/>
@@ -1856,7 +1862,7 @@
         <v>42861</v>
       </c>
       <c r="B80" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="2"/>
@@ -1872,7 +1878,7 @@
         <v>42862</v>
       </c>
       <c r="B81" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -1888,7 +1894,7 @@
         <v>42863</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C82" s="6">
         <v>11</v>
@@ -1906,7 +1912,7 @@
         <v>42864</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="2"/>
@@ -1922,7 +1928,7 @@
         <v>42865</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="2"/>
@@ -1938,7 +1944,7 @@
         <v>42866</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="2"/>
@@ -1954,7 +1960,7 @@
         <v>42867</v>
       </c>
       <c r="B86" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="2"/>
@@ -1970,7 +1976,7 @@
         <v>42868</v>
       </c>
       <c r="B87" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="2"/>
@@ -1986,7 +1992,7 @@
         <v>42869</v>
       </c>
       <c r="B88" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -2002,7 +2008,7 @@
         <v>42870</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C89" s="6">
         <v>12</v>
@@ -2020,7 +2026,7 @@
         <v>42871</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="2"/>
@@ -2036,7 +2042,7 @@
         <v>42872</v>
       </c>
       <c r="B91" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="2"/>
@@ -2052,7 +2058,7 @@
         <v>42873</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="2"/>
@@ -2068,7 +2074,7 @@
         <v>42874</v>
       </c>
       <c r="B93" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="2"/>
@@ -2084,7 +2090,7 @@
         <v>42875</v>
       </c>
       <c r="B94" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C94" s="8"/>
       <c r="D94" s="2"/>
@@ -2100,7 +2106,7 @@
         <v>42876</v>
       </c>
       <c r="B95" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -2116,7 +2122,7 @@
         <v>42877</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C96" s="6">
         <v>13</v>
@@ -2134,7 +2140,7 @@
         <v>42878</v>
       </c>
       <c r="B97" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="2"/>
@@ -2150,7 +2156,7 @@
         <v>42879</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="2"/>
@@ -2166,7 +2172,7 @@
         <v>42880</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="2"/>
@@ -2182,7 +2188,7 @@
         <v>42881</v>
       </c>
       <c r="B100" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="2"/>
@@ -2198,7 +2204,7 @@
         <v>42882</v>
       </c>
       <c r="B101" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="2"/>
@@ -2214,7 +2220,7 @@
         <v>42883</v>
       </c>
       <c r="B102" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -2230,7 +2236,7 @@
         <v>42884</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C103" s="6">
         <v>14</v>
@@ -2248,7 +2254,7 @@
         <v>42885</v>
       </c>
       <c r="B104" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="2"/>
@@ -2264,7 +2270,7 @@
         <v>42886</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="2"/>
@@ -2280,7 +2286,7 @@
         <v>42887</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="2"/>
@@ -2296,7 +2302,7 @@
         <v>42888</v>
       </c>
       <c r="B107" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="2"/>
@@ -2312,7 +2318,7 @@
         <v>42889</v>
       </c>
       <c r="B108" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C108" s="8"/>
       <c r="D108" s="2"/>
@@ -2328,7 +2334,7 @@
         <v>42890</v>
       </c>
       <c r="B109" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -2344,7 +2350,7 @@
         <v>42891</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C110" s="6">
         <v>15</v>
@@ -2362,7 +2368,7 @@
         <v>42892</v>
       </c>
       <c r="B111" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="2"/>
@@ -2378,7 +2384,7 @@
         <v>42893</v>
       </c>
       <c r="B112" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="2"/>
@@ -2394,11 +2400,11 @@
         <v>42894</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E113" s="5">
         <v>43146</v>
@@ -2412,7 +2418,7 @@
         <v>42895</v>
       </c>
       <c r="B114" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="2"/>
@@ -2428,7 +2434,7 @@
         <v>42896</v>
       </c>
       <c r="B115" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C115" s="8"/>
       <c r="D115" s="2"/>
@@ -2444,7 +2450,7 @@
         <v>42897</v>
       </c>
       <c r="B116" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -2460,7 +2466,7 @@
         <v>42898</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C117" s="6">
         <v>16</v>
@@ -2478,7 +2484,7 @@
         <v>42899</v>
       </c>
       <c r="B118" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="2"/>
@@ -2494,7 +2500,7 @@
         <v>42900</v>
       </c>
       <c r="B119" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="2"/>
@@ -2510,7 +2516,7 @@
         <v>42901</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="2"/>
@@ -2526,7 +2532,7 @@
         <v>42902</v>
       </c>
       <c r="B121" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="2"/>
@@ -2542,7 +2548,7 @@
         <v>42903</v>
       </c>
       <c r="B122" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C122" s="8"/>
       <c r="D122" s="2"/>
@@ -2558,7 +2564,7 @@
         <v>42904</v>
       </c>
       <c r="B123" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -2574,7 +2580,7 @@
         <v>42905</v>
       </c>
       <c r="B124" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C124" s="6">
         <v>17</v>
@@ -2592,11 +2598,11 @@
         <v>42906</v>
       </c>
       <c r="B125" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E125" s="5">
         <v>43158</v>
@@ -2610,11 +2616,11 @@
         <v>42907</v>
       </c>
       <c r="B126" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E126" s="5">
         <v>43159</v>
@@ -2628,7 +2634,7 @@
         <v>42908</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="2"/>
@@ -2644,7 +2650,7 @@
         <v>42909</v>
       </c>
       <c r="B128" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="2"/>
@@ -2660,7 +2666,7 @@
         <v>42910</v>
       </c>
       <c r="B129" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C129" s="8"/>
       <c r="D129" s="2"/>
@@ -2676,7 +2682,7 @@
         <v>42911</v>
       </c>
       <c r="B130" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -2692,7 +2698,7 @@
         <v>42912</v>
       </c>
       <c r="B131" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C131" s="6">
         <v>18</v>
@@ -2710,7 +2716,7 @@
         <v>42913</v>
       </c>
       <c r="B132" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="2"/>
@@ -2726,11 +2732,11 @@
         <v>42914</v>
       </c>
       <c r="B133" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E133" s="5">
         <v>43166</v>
@@ -2744,7 +2750,7 @@
         <v>42915</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="2"/>
@@ -2760,7 +2766,7 @@
         <v>42916</v>
       </c>
       <c r="B135" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="2"/>
@@ -2776,7 +2782,7 @@
         <v>42917</v>
       </c>
       <c r="B136" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C136" s="8"/>
       <c r="D136" s="2"/>
@@ -2792,7 +2798,7 @@
         <v>42918</v>
       </c>
       <c r="B137" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -2808,7 +2814,7 @@
         <v>42919</v>
       </c>
       <c r="B138" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C138" s="6">
         <v>19</v>
@@ -2826,7 +2832,7 @@
         <v>42920</v>
       </c>
       <c r="B139" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C139" s="7"/>
       <c r="D139" s="2"/>
@@ -2842,7 +2848,7 @@
         <v>42921</v>
       </c>
       <c r="B140" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="2"/>
@@ -2858,7 +2864,7 @@
         <v>42922</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="2"/>
@@ -2874,7 +2880,7 @@
         <v>42923</v>
       </c>
       <c r="B142" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="2"/>
@@ -2890,7 +2896,7 @@
         <v>42924</v>
       </c>
       <c r="B143" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C143" s="8"/>
       <c r="D143" s="2"/>
@@ -2906,7 +2912,7 @@
         <v>42925</v>
       </c>
       <c r="B144" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -2922,7 +2928,7 @@
         <v>42926</v>
       </c>
       <c r="B145" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C145" s="6">
         <v>20</v>
@@ -2940,11 +2946,11 @@
         <v>42927</v>
       </c>
       <c r="B146" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C146" s="7"/>
       <c r="D146" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E146" s="5">
         <v>43179</v>
@@ -2958,11 +2964,11 @@
         <v>42928</v>
       </c>
       <c r="B147" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E147" s="5">
         <v>43180</v>
@@ -2976,11 +2982,11 @@
         <v>42929</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C148" s="7"/>
       <c r="D148" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E148" s="5">
         <v>43181</v>
@@ -2994,11 +3000,11 @@
         <v>42930</v>
       </c>
       <c r="B149" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C149" s="7"/>
       <c r="D149" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E149" s="5">
         <v>43182</v>
@@ -3012,7 +3018,7 @@
         <v>42931</v>
       </c>
       <c r="B150" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C150" s="8"/>
       <c r="D150" s="2"/>
@@ -3028,7 +3034,7 @@
         <v>42932</v>
       </c>
       <c r="B151" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -3044,13 +3050,13 @@
         <v>42933</v>
       </c>
       <c r="B152" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C152" s="6">
         <v>21</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E152" s="5">
         <v>43185</v>
@@ -3064,7 +3070,7 @@
         <v>42934</v>
       </c>
       <c r="B153" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C153" s="7"/>
       <c r="D153" s="2"/>
@@ -3080,7 +3086,7 @@
         <v>42935</v>
       </c>
       <c r="B154" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C154" s="7"/>
       <c r="D154" s="2"/>
@@ -3096,7 +3102,7 @@
         <v>42936</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C155" s="7"/>
       <c r="D155" s="2"/>
@@ -3112,7 +3118,7 @@
         <v>42937</v>
       </c>
       <c r="B156" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C156" s="7"/>
       <c r="D156" s="2"/>
@@ -3128,7 +3134,7 @@
         <v>42938</v>
       </c>
       <c r="B157" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C157" s="8"/>
       <c r="D157" s="2"/>
@@ -3144,7 +3150,7 @@
         <v>42939</v>
       </c>
       <c r="B158" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -3160,7 +3166,7 @@
         <v>42940</v>
       </c>
       <c r="B159" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C159" s="6">
         <v>22</v>
@@ -3178,7 +3184,7 @@
         <v>42941</v>
       </c>
       <c r="B160" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C160" s="7"/>
       <c r="D160" s="2"/>
@@ -3194,7 +3200,7 @@
         <v>42942</v>
       </c>
       <c r="B161" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="2"/>
@@ -3210,7 +3216,7 @@
         <v>42943</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="2"/>
@@ -3226,7 +3232,7 @@
         <v>42944</v>
       </c>
       <c r="B163" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C163" s="7"/>
       <c r="D163" s="2"/>
@@ -3242,7 +3248,7 @@
         <v>42945</v>
       </c>
       <c r="B164" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C164" s="8"/>
       <c r="D164" s="2"/>
@@ -3258,7 +3264,7 @@
         <v>42946</v>
       </c>
       <c r="B165" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -3274,7 +3280,7 @@
         <v>42947</v>
       </c>
       <c r="B166" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C166" s="6">
         <v>23</v>
@@ -3292,7 +3298,7 @@
         <v>42948</v>
       </c>
       <c r="B167" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C167" s="7"/>
       <c r="D167" s="2"/>
@@ -3308,7 +3314,7 @@
         <v>42949</v>
       </c>
       <c r="B168" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C168" s="7"/>
       <c r="D168" s="2"/>
@@ -3324,7 +3330,7 @@
         <v>42950</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="2"/>
@@ -3340,7 +3346,7 @@
         <v>42951</v>
       </c>
       <c r="B170" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C170" s="7"/>
       <c r="D170" s="2"/>
@@ -3356,7 +3362,7 @@
         <v>42952</v>
       </c>
       <c r="B171" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C171" s="8"/>
       <c r="D171" s="2"/>
@@ -3372,7 +3378,7 @@
         <v>42953</v>
       </c>
       <c r="B172" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -3388,13 +3394,13 @@
         <v>42954</v>
       </c>
       <c r="B173" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C173" s="6">
         <v>24</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E173" s="5">
         <v>43206</v>
@@ -3408,11 +3414,11 @@
         <v>42955</v>
       </c>
       <c r="B174" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C174" s="7"/>
       <c r="D174" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E174" s="5">
         <v>43207</v>
@@ -3426,7 +3432,7 @@
         <v>42956</v>
       </c>
       <c r="B175" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="2"/>
@@ -3442,7 +3448,7 @@
         <v>42957</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C176" s="7"/>
       <c r="D176" s="2"/>
@@ -3458,7 +3464,7 @@
         <v>42958</v>
       </c>
       <c r="B177" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C177" s="7"/>
       <c r="D177" s="2"/>
@@ -3474,7 +3480,7 @@
         <v>42959</v>
       </c>
       <c r="B178" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C178" s="8"/>
       <c r="D178" s="2"/>
@@ -3490,7 +3496,7 @@
         <v>42960</v>
       </c>
       <c r="B179" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -3506,7 +3512,7 @@
         <v>42961</v>
       </c>
       <c r="B180" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C180" s="6">
         <v>25</v>
@@ -3524,7 +3530,7 @@
         <v>42962</v>
       </c>
       <c r="B181" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C181" s="7"/>
       <c r="D181" s="2"/>
@@ -3540,7 +3546,7 @@
         <v>42963</v>
       </c>
       <c r="B182" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C182" s="7"/>
       <c r="D182" s="2"/>
@@ -3556,7 +3562,7 @@
         <v>42964</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C183" s="7"/>
       <c r="D183" s="2"/>
@@ -3572,7 +3578,7 @@
         <v>42965</v>
       </c>
       <c r="B184" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C184" s="7"/>
       <c r="D184" s="2"/>
@@ -3588,7 +3594,7 @@
         <v>42966</v>
       </c>
       <c r="B185" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C185" s="8"/>
       <c r="D185" s="2"/>
@@ -3604,7 +3610,7 @@
         <v>42967</v>
       </c>
       <c r="B186" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -3620,7 +3626,7 @@
         <v>42968</v>
       </c>
       <c r="B187" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C187" s="6">
         <v>26</v>
@@ -3638,7 +3644,7 @@
         <v>42969</v>
       </c>
       <c r="B188" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C188" s="7"/>
       <c r="D188" s="2"/>
@@ -3654,7 +3660,7 @@
         <v>42970</v>
       </c>
       <c r="B189" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C189" s="7"/>
       <c r="D189" s="2"/>
@@ -3670,7 +3676,7 @@
         <v>42971</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C190" s="7"/>
       <c r="D190" s="2"/>
@@ -3686,7 +3692,7 @@
         <v>42972</v>
       </c>
       <c r="B191" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C191" s="7"/>
       <c r="D191" s="2"/>
@@ -3702,7 +3708,7 @@
         <v>42973</v>
       </c>
       <c r="B192" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C192" s="8"/>
       <c r="D192" s="2"/>
@@ -3718,7 +3724,7 @@
         <v>42974</v>
       </c>
       <c r="B193" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -3734,7 +3740,7 @@
         <v>42975</v>
       </c>
       <c r="B194" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C194" s="6">
         <v>27</v>
@@ -3752,7 +3758,7 @@
         <v>42976</v>
       </c>
       <c r="B195" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C195" s="7"/>
       <c r="D195" s="2"/>
@@ -3768,7 +3774,7 @@
         <v>42977</v>
       </c>
       <c r="B196" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C196" s="7"/>
       <c r="D196" s="2"/>
@@ -3784,7 +3790,7 @@
         <v>42978</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C197" s="7"/>
       <c r="D197" s="2"/>
@@ -3800,7 +3806,7 @@
         <v>42979</v>
       </c>
       <c r="B198" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C198" s="7"/>
       <c r="D198" s="2"/>
@@ -3816,7 +3822,7 @@
         <v>42980</v>
       </c>
       <c r="B199" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C199" s="8"/>
       <c r="D199" s="2"/>
@@ -3832,7 +3838,7 @@
         <v>42981</v>
       </c>
       <c r="B200" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -3848,7 +3854,7 @@
         <v>42982</v>
       </c>
       <c r="B201" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C201" s="6">
         <v>28</v>
@@ -3866,7 +3872,7 @@
         <v>42983</v>
       </c>
       <c r="B202" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C202" s="7"/>
       <c r="D202" s="2"/>
@@ -3882,7 +3888,7 @@
         <v>42984</v>
       </c>
       <c r="B203" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C203" s="7"/>
       <c r="D203" s="2"/>
@@ -3898,7 +3904,7 @@
         <v>42985</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C204" s="7"/>
       <c r="D204" s="2"/>
@@ -3914,7 +3920,7 @@
         <v>42986</v>
       </c>
       <c r="B205" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C205" s="7"/>
       <c r="D205" s="2"/>
@@ -3930,7 +3936,7 @@
         <v>42987</v>
       </c>
       <c r="B206" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C206" s="8"/>
       <c r="D206" s="2"/>
@@ -3946,7 +3952,7 @@
         <v>42988</v>
       </c>
       <c r="B207" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -3962,7 +3968,7 @@
         <v>42989</v>
       </c>
       <c r="B208" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C208" s="6">
         <v>29</v>
@@ -3980,7 +3986,7 @@
         <v>42990</v>
       </c>
       <c r="B209" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C209" s="7"/>
       <c r="D209" s="2"/>
@@ -3996,7 +4002,7 @@
         <v>42991</v>
       </c>
       <c r="B210" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C210" s="7"/>
       <c r="D210" s="2"/>
@@ -4012,7 +4018,7 @@
         <v>42992</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C211" s="7"/>
       <c r="D211" s="2"/>
@@ -4028,7 +4034,7 @@
         <v>42993</v>
       </c>
       <c r="B212" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C212" s="7"/>
       <c r="D212" s="2"/>
@@ -4044,7 +4050,7 @@
         <v>42994</v>
       </c>
       <c r="B213" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C213" s="8"/>
       <c r="D213" s="2"/>
@@ -4060,7 +4066,7 @@
         <v>42995</v>
       </c>
       <c r="B214" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -4076,7 +4082,7 @@
         <v>42996</v>
       </c>
       <c r="B215" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C215" s="6">
         <v>30</v>
@@ -4094,7 +4100,7 @@
         <v>42997</v>
       </c>
       <c r="B216" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C216" s="7"/>
       <c r="D216" s="2"/>
@@ -4110,7 +4116,7 @@
         <v>42998</v>
       </c>
       <c r="B217" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C217" s="7"/>
       <c r="D217" s="2"/>
@@ -4126,7 +4132,7 @@
         <v>42999</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C218" s="7"/>
       <c r="D218" s="2"/>
@@ -4142,7 +4148,7 @@
         <v>43000</v>
       </c>
       <c r="B219" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C219" s="7"/>
       <c r="D219" s="2"/>
@@ -4158,7 +4164,7 @@
         <v>43001</v>
       </c>
       <c r="B220" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C220" s="8"/>
       <c r="D220" s="2"/>
@@ -4174,7 +4180,7 @@
         <v>43002</v>
       </c>
       <c r="B221" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -4190,7 +4196,7 @@
         <v>43003</v>
       </c>
       <c r="B222" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C222" s="6">
         <v>31</v>
@@ -4208,7 +4214,7 @@
         <v>43004</v>
       </c>
       <c r="B223" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C223" s="7"/>
       <c r="D223" s="2"/>
@@ -4224,7 +4230,7 @@
         <v>43005</v>
       </c>
       <c r="B224" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C224" s="7"/>
       <c r="D224" s="2"/>
@@ -4240,7 +4246,7 @@
         <v>43006</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C225" s="7"/>
       <c r="D225" s="2"/>
@@ -4256,7 +4262,7 @@
         <v>43007</v>
       </c>
       <c r="B226" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C226" s="7"/>
       <c r="D226" s="2"/>
@@ -4272,7 +4278,7 @@
         <v>43008</v>
       </c>
       <c r="B227" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C227" s="8"/>
       <c r="D227" s="2"/>
@@ -4288,7 +4294,7 @@
         <v>43009</v>
       </c>
       <c r="B228" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -4304,7 +4310,7 @@
         <v>43010</v>
       </c>
       <c r="B229" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C229" s="6">
         <v>32</v>
@@ -4322,7 +4328,7 @@
         <v>43011</v>
       </c>
       <c r="B230" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C230" s="7"/>
       <c r="D230" s="2"/>
@@ -4338,7 +4344,7 @@
         <v>43012</v>
       </c>
       <c r="B231" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C231" s="7"/>
       <c r="D231" s="2"/>
@@ -4354,7 +4360,7 @@
         <v>43013</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C232" s="7"/>
       <c r="D232" s="2"/>
@@ -4370,7 +4376,7 @@
         <v>43014</v>
       </c>
       <c r="B233" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C233" s="7"/>
       <c r="D233" s="2"/>
@@ -4386,7 +4392,7 @@
         <v>43015</v>
       </c>
       <c r="B234" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C234" s="8"/>
       <c r="D234" s="2"/>
@@ -4402,7 +4408,7 @@
         <v>43016</v>
       </c>
       <c r="B235" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -4418,7 +4424,7 @@
         <v>43017</v>
       </c>
       <c r="B236" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C236" s="6">
         <v>33</v>
@@ -4436,7 +4442,7 @@
         <v>43018</v>
       </c>
       <c r="B237" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C237" s="7"/>
       <c r="D237" s="2"/>
@@ -4452,7 +4458,7 @@
         <v>43019</v>
       </c>
       <c r="B238" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C238" s="7"/>
       <c r="D238" s="2"/>
@@ -4468,7 +4474,7 @@
         <v>43020</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C239" s="7"/>
       <c r="D239" s="2"/>
@@ -4484,7 +4490,7 @@
         <v>43021</v>
       </c>
       <c r="B240" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C240" s="7"/>
       <c r="D240" s="2"/>
@@ -4500,7 +4506,7 @@
         <v>43022</v>
       </c>
       <c r="B241" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C241" s="8"/>
       <c r="D241" s="2"/>
@@ -4516,7 +4522,7 @@
         <v>43023</v>
       </c>
       <c r="B242" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -4532,7 +4538,7 @@
         <v>43024</v>
       </c>
       <c r="B243" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C243" s="6">
         <v>34</v>
@@ -4550,7 +4556,7 @@
         <v>43025</v>
       </c>
       <c r="B244" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C244" s="7"/>
       <c r="D244" s="2"/>
@@ -4566,7 +4572,7 @@
         <v>43026</v>
       </c>
       <c r="B245" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C245" s="7"/>
       <c r="D245" s="2"/>
@@ -4582,7 +4588,7 @@
         <v>43027</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C246" s="7"/>
       <c r="D246" s="2"/>
@@ -4598,7 +4604,7 @@
         <v>43028</v>
       </c>
       <c r="B247" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C247" s="7"/>
       <c r="D247" s="2"/>
@@ -4614,7 +4620,7 @@
         <v>43029</v>
       </c>
       <c r="B248" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C248" s="8"/>
       <c r="D248" s="2"/>
@@ -4630,7 +4636,7 @@
         <v>43030</v>
       </c>
       <c r="B249" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
@@ -4646,7 +4652,7 @@
         <v>43031</v>
       </c>
       <c r="B250" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C250" s="6">
         <v>35</v>
@@ -4664,7 +4670,7 @@
         <v>43032</v>
       </c>
       <c r="B251" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C251" s="7"/>
       <c r="D251" s="2"/>
@@ -4680,7 +4686,7 @@
         <v>43033</v>
       </c>
       <c r="B252" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C252" s="7"/>
       <c r="D252" s="2"/>
@@ -4696,7 +4702,7 @@
         <v>43034</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C253" s="7"/>
       <c r="D253" s="2"/>
@@ -4712,7 +4718,7 @@
         <v>43035</v>
       </c>
       <c r="B254" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C254" s="7"/>
       <c r="D254" s="2"/>
@@ -4728,7 +4734,7 @@
         <v>43036</v>
       </c>
       <c r="B255" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C255" s="8"/>
       <c r="D255" s="2"/>
@@ -4744,7 +4750,7 @@
         <v>43037</v>
       </c>
       <c r="B256" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
@@ -4760,7 +4766,7 @@
         <v>43038</v>
       </c>
       <c r="B257" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C257" s="6">
         <v>36</v>
@@ -4778,7 +4784,7 @@
         <v>43039</v>
       </c>
       <c r="B258" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C258" s="7"/>
       <c r="D258" s="2"/>
@@ -4794,7 +4800,7 @@
         <v>43040</v>
       </c>
       <c r="B259" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C259" s="7"/>
       <c r="D259" s="2"/>
@@ -4810,7 +4816,7 @@
         <v>43041</v>
       </c>
       <c r="B260" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C260" s="7"/>
       <c r="D260" s="2"/>
@@ -4826,7 +4832,7 @@
         <v>43042</v>
       </c>
       <c r="B261" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C261" s="7"/>
       <c r="D261" s="2"/>
@@ -4842,7 +4848,7 @@
         <v>43043</v>
       </c>
       <c r="B262" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C262" s="8"/>
       <c r="D262" s="2"/>
@@ -4858,7 +4864,7 @@
         <v>43044</v>
       </c>
       <c r="B263" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
@@ -4874,7 +4880,7 @@
         <v>43045</v>
       </c>
       <c r="B264" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C264" s="6">
         <v>37</v>
@@ -4892,7 +4898,7 @@
         <v>43046</v>
       </c>
       <c r="B265" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C265" s="7"/>
       <c r="D265" s="2"/>
@@ -4908,7 +4914,7 @@
         <v>43047</v>
       </c>
       <c r="B266" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C266" s="7"/>
       <c r="D266" s="2"/>
@@ -4924,7 +4930,7 @@
         <v>43048</v>
       </c>
       <c r="B267" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C267" s="7"/>
       <c r="D267" s="2"/>
@@ -4940,7 +4946,7 @@
         <v>43049</v>
       </c>
       <c r="B268" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C268" s="7"/>
       <c r="D268" s="2"/>
@@ -4956,7 +4962,7 @@
         <v>43050</v>
       </c>
       <c r="B269" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C269" s="8"/>
       <c r="D269" s="2"/>
@@ -4972,7 +4978,7 @@
         <v>43051</v>
       </c>
       <c r="B270" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
@@ -4988,7 +4994,7 @@
         <v>43052</v>
       </c>
       <c r="B271" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C271" s="6">
         <v>38</v>
@@ -5006,7 +5012,7 @@
         <v>43053</v>
       </c>
       <c r="B272" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C272" s="7"/>
       <c r="D272" s="2"/>
@@ -5022,7 +5028,7 @@
         <v>43054</v>
       </c>
       <c r="B273" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C273" s="7"/>
       <c r="D273" s="2"/>
@@ -5038,7 +5044,7 @@
         <v>43055</v>
       </c>
       <c r="B274" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C274" s="7"/>
       <c r="D274" s="2"/>
@@ -5054,7 +5060,7 @@
         <v>43056</v>
       </c>
       <c r="B275" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C275" s="7"/>
       <c r="D275" s="2"/>
@@ -5070,7 +5076,7 @@
         <v>43057</v>
       </c>
       <c r="B276" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C276" s="8"/>
       <c r="D276" s="2"/>
@@ -5086,7 +5092,7 @@
         <v>43058</v>
       </c>
       <c r="B277" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
@@ -5102,7 +5108,7 @@
         <v>43059</v>
       </c>
       <c r="B278" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C278" s="6">
         <v>39</v>
@@ -5120,7 +5126,7 @@
         <v>43060</v>
       </c>
       <c r="B279" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C279" s="7"/>
       <c r="D279" s="2"/>
@@ -5136,7 +5142,7 @@
         <v>43061</v>
       </c>
       <c r="B280" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C280" s="7"/>
       <c r="D280" s="2"/>
@@ -5152,7 +5158,7 @@
         <v>43062</v>
       </c>
       <c r="B281" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C281" s="7"/>
       <c r="D281" s="2"/>
@@ -5168,7 +5174,7 @@
         <v>43063</v>
       </c>
       <c r="B282" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C282" s="7"/>
       <c r="D282" s="2"/>
@@ -5184,7 +5190,7 @@
         <v>43064</v>
       </c>
       <c r="B283" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C283" s="8"/>
       <c r="D283" s="2"/>
@@ -5200,7 +5206,7 @@
         <v>43065</v>
       </c>
       <c r="B284" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
@@ -5216,7 +5222,7 @@
         <v>43066</v>
       </c>
       <c r="B285" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C285" s="6">
         <v>40</v>
@@ -5234,7 +5240,7 @@
         <v>43067</v>
       </c>
       <c r="B286" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C286" s="7"/>
       <c r="D286" s="2"/>
@@ -5250,7 +5256,7 @@
         <v>43068</v>
       </c>
       <c r="B287" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C287" s="7"/>
       <c r="D287" s="2"/>
@@ -5266,7 +5272,7 @@
         <v>43069</v>
       </c>
       <c r="B288" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C288" s="7"/>
       <c r="D288" s="2"/>
@@ -5282,7 +5288,7 @@
         <v>43070</v>
       </c>
       <c r="B289" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C289" s="7"/>
       <c r="D289" s="2"/>
@@ -5298,7 +5304,7 @@
         <v>43071</v>
       </c>
       <c r="B290" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C290" s="8"/>
       <c r="D290" s="2"/>
@@ -5314,7 +5320,7 @@
         <v>43072</v>
       </c>
       <c r="B291" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
@@ -5330,7 +5336,7 @@
         <v>43073</v>
       </c>
       <c r="B292" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C292" s="6">
         <v>41</v>
@@ -5348,7 +5354,7 @@
         <v>43074</v>
       </c>
       <c r="B293" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C293" s="7"/>
       <c r="D293" s="2"/>
@@ -5364,7 +5370,7 @@
         <v>43075</v>
       </c>
       <c r="B294" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C294" s="7"/>
       <c r="D294" s="2"/>
@@ -5380,7 +5386,7 @@
         <v>43076</v>
       </c>
       <c r="B295" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C295" s="7"/>
       <c r="D295" s="2"/>
@@ -5396,7 +5402,7 @@
         <v>43077</v>
       </c>
       <c r="B296" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C296" s="7"/>
       <c r="D296" s="2"/>
@@ -5412,7 +5418,7 @@
         <v>43078</v>
       </c>
       <c r="B297" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C297" s="8"/>
       <c r="D297" s="2"/>
@@ -5428,7 +5434,7 @@
         <v>43079</v>
       </c>
       <c r="B298" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
@@ -5444,7 +5450,7 @@
         <v>43080</v>
       </c>
       <c r="B299" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C299" s="6">
         <v>42</v>
@@ -5462,7 +5468,7 @@
         <v>43081</v>
       </c>
       <c r="B300" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C300" s="7"/>
       <c r="D300" s="2"/>
@@ -5478,7 +5484,7 @@
         <v>43082</v>
       </c>
       <c r="B301" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C301" s="7"/>
       <c r="D301" s="2"/>
@@ -5494,7 +5500,7 @@
         <v>43083</v>
       </c>
       <c r="B302" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C302" s="7"/>
       <c r="D302" s="2"/>
@@ -5510,7 +5516,7 @@
         <v>43084</v>
       </c>
       <c r="B303" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C303" s="7"/>
       <c r="D303" s="2"/>
@@ -5526,7 +5532,7 @@
         <v>43085</v>
       </c>
       <c r="B304" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C304" s="8"/>
       <c r="D304" s="2"/>
@@ -5542,7 +5548,7 @@
         <v>43086</v>
       </c>
       <c r="B305" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
@@ -5558,7 +5564,7 @@
         <v>43087</v>
       </c>
       <c r="B306" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C306" s="6">
         <v>43</v>
@@ -5576,7 +5582,7 @@
         <v>43088</v>
       </c>
       <c r="B307" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C307" s="7"/>
       <c r="D307" s="2"/>
@@ -5592,7 +5598,7 @@
         <v>43089</v>
       </c>
       <c r="B308" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C308" s="7"/>
       <c r="D308" s="2"/>
@@ -5608,7 +5614,7 @@
         <v>43090</v>
       </c>
       <c r="B309" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C309" s="7"/>
       <c r="D309" s="2"/>
@@ -5624,7 +5630,7 @@
         <v>43091</v>
       </c>
       <c r="B310" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C310" s="7"/>
       <c r="D310" s="2"/>
@@ -5640,7 +5646,7 @@
         <v>43092</v>
       </c>
       <c r="B311" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C311" s="8"/>
       <c r="D311" s="2"/>
@@ -5656,7 +5662,7 @@
         <v>43093</v>
       </c>
       <c r="B312" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
@@ -5672,7 +5678,7 @@
         <v>43094</v>
       </c>
       <c r="B313" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C313" s="6">
         <v>44</v>
@@ -5690,7 +5696,7 @@
         <v>43095</v>
       </c>
       <c r="B314" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C314" s="7"/>
       <c r="D314" s="2"/>
@@ -5706,7 +5712,7 @@
         <v>43096</v>
       </c>
       <c r="B315" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C315" s="7"/>
       <c r="D315" s="2"/>
@@ -5722,7 +5728,7 @@
         <v>43097</v>
       </c>
       <c r="B316" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C316" s="7"/>
       <c r="D316" s="2"/>
@@ -5738,7 +5744,7 @@
         <v>43098</v>
       </c>
       <c r="B317" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C317" s="7"/>
       <c r="D317" s="2"/>
@@ -5754,7 +5760,7 @@
         <v>43099</v>
       </c>
       <c r="B318" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C318" s="8"/>
       <c r="D318" s="2"/>
@@ -5770,7 +5776,7 @@
         <v>43100</v>
       </c>
       <c r="B319" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
@@ -5837,17 +5843,28 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C47:C52"/>
-    <mergeCell ref="C54:C59"/>
-    <mergeCell ref="C61:C66"/>
-    <mergeCell ref="C68:C73"/>
+    <mergeCell ref="C292:C297"/>
+    <mergeCell ref="C299:C304"/>
+    <mergeCell ref="C306:C311"/>
+    <mergeCell ref="C313:C318"/>
+    <mergeCell ref="C250:C255"/>
+    <mergeCell ref="C257:C262"/>
+    <mergeCell ref="C264:C269"/>
+    <mergeCell ref="C271:C276"/>
+    <mergeCell ref="C278:C283"/>
+    <mergeCell ref="C285:C290"/>
+    <mergeCell ref="C243:C248"/>
+    <mergeCell ref="C166:C171"/>
+    <mergeCell ref="C173:C178"/>
+    <mergeCell ref="C180:C185"/>
+    <mergeCell ref="C187:C192"/>
+    <mergeCell ref="C194:C199"/>
+    <mergeCell ref="C201:C206"/>
+    <mergeCell ref="C208:C213"/>
+    <mergeCell ref="C215:C220"/>
+    <mergeCell ref="C222:C227"/>
+    <mergeCell ref="C229:C234"/>
+    <mergeCell ref="C236:C241"/>
     <mergeCell ref="C159:C164"/>
     <mergeCell ref="C82:C87"/>
     <mergeCell ref="C89:C94"/>
@@ -5860,28 +5877,17 @@
     <mergeCell ref="C138:C143"/>
     <mergeCell ref="C145:C150"/>
     <mergeCell ref="C152:C157"/>
-    <mergeCell ref="C243:C248"/>
-    <mergeCell ref="C166:C171"/>
-    <mergeCell ref="C173:C178"/>
-    <mergeCell ref="C180:C185"/>
-    <mergeCell ref="C187:C192"/>
-    <mergeCell ref="C194:C199"/>
-    <mergeCell ref="C201:C206"/>
-    <mergeCell ref="C208:C213"/>
-    <mergeCell ref="C215:C220"/>
-    <mergeCell ref="C222:C227"/>
-    <mergeCell ref="C229:C234"/>
-    <mergeCell ref="C236:C241"/>
-    <mergeCell ref="C292:C297"/>
-    <mergeCell ref="C299:C304"/>
-    <mergeCell ref="C306:C311"/>
-    <mergeCell ref="C313:C318"/>
-    <mergeCell ref="C250:C255"/>
-    <mergeCell ref="C257:C262"/>
-    <mergeCell ref="C264:C269"/>
-    <mergeCell ref="C271:C276"/>
-    <mergeCell ref="C278:C283"/>
-    <mergeCell ref="C285:C290"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="C61:C66"/>
+    <mergeCell ref="C68:C73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
